--- a/target_selection_data/inputs/hand_checked/mdwarf_isr_continuously_updated.xlsx
+++ b/target_selection_data/inputs/hand_checked/mdwarf_isr_continuously_updated.xlsx
@@ -82,7 +82,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj+my4DSwRzESf3NiqzsZEmQdwlRA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjuGrGaCpUNs+gs3ovH1bT+DOO0Dw=="/>
     </ext>
   </extLst>
 </comments>
@@ -1367,7 +1367,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,6 +1414,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFC73"/>
         <bgColor rgb="FFFFFC73"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1692,7 +1698,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1881,6 +1887,41 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="14" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="15" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="9" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="9" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="9" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="14" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1893,7 +1934,25 @@
     <xf borderId="14" fillId="0" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1902,76 +1961,76 @@
     <xf borderId="14" fillId="7" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="10" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="0" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="15" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="15" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="9" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="9" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="9" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="10" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="10" fontId="0" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="10" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="10" fontId="17" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="10" fontId="17" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="10" fontId="17" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="11" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="11" fontId="17" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="11" fontId="17" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="11" fontId="17" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2231,13 +2290,13 @@
     <col customWidth="1" hidden="1" min="10" max="10" width="8.33"/>
     <col customWidth="1" hidden="1" min="11" max="11" width="9.0"/>
     <col customWidth="1" min="12" max="14" width="9.0"/>
-    <col customWidth="1" min="15" max="15" width="18.44"/>
-    <col customWidth="1" min="16" max="17" width="19.78"/>
-    <col customWidth="1" min="18" max="18" width="12.33"/>
-    <col customWidth="1" min="19" max="19" width="12.67"/>
-    <col customWidth="1" min="20" max="20" width="24.44"/>
-    <col customWidth="1" min="21" max="22" width="10.56"/>
-    <col customWidth="1" min="23" max="23" width="12.44"/>
+    <col customWidth="1" hidden="1" min="15" max="15" width="18.44"/>
+    <col customWidth="1" hidden="1" min="16" max="17" width="19.78"/>
+    <col customWidth="1" hidden="1" min="18" max="18" width="12.33"/>
+    <col customWidth="1" hidden="1" min="19" max="19" width="12.67"/>
+    <col customWidth="1" hidden="1" min="20" max="20" width="24.44"/>
+    <col customWidth="1" hidden="1" min="21" max="22" width="10.56"/>
+    <col customWidth="1" hidden="1" min="23" max="23" width="12.44"/>
     <col customWidth="1" min="24" max="24" width="24.44"/>
     <col customWidth="1" min="25" max="26" width="10.56"/>
     <col customWidth="1" min="27" max="27" width="12.44"/>
@@ -5418,107 +5477,107 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="85">
         <v>18.89</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="87">
         <f>VLOOKUP(B33,'Lookup Tables'!$D$2:$F$4,MATCH(C33,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-8</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="87">
         <f t="shared" si="1"/>
         <v>10.89</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="85">
         <v>3194.0</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="85">
         <v>47.34</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="88">
         <v>0.33</v>
       </c>
-      <c r="L33" s="47">
+      <c r="L33" s="89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="48">
+      <c r="M33" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="49">
+      <c r="N33" s="91">
         <f t="shared" si="9"/>
         <v>0.0000000001495414971</v>
       </c>
-      <c r="O33" s="50">
+      <c r="O33" s="92">
         <f t="shared" si="5"/>
         <v>0.0000000001495414971</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P33" s="92">
         <f>AE33*((K33*R_sun)/(J33*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="Q33" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="85">
         <v>1946578.0</v>
       </c>
-      <c r="S33" s="82">
+      <c r="S33" s="93">
         <v>67438.16</v>
       </c>
-      <c r="T33" s="52" t="s">
+      <c r="T33" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="U33" s="73">
+      <c r="U33" s="95">
         <v>1957099.0</v>
       </c>
-      <c r="V33" s="74">
+      <c r="V33" s="96">
         <v>61.834</v>
       </c>
-      <c r="W33" s="71">
+      <c r="W33" s="97">
         <v>4408.361</v>
       </c>
-      <c r="X33" s="54" t="s">
+      <c r="X33" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Y33" s="42">
+      <c r="Y33" s="85">
         <v>1946631.0</v>
       </c>
-      <c r="Z33" s="42">
+      <c r="Z33" s="85">
         <v>5.953</v>
       </c>
-      <c r="AA33" s="51">
+      <c r="AA33" s="98">
         <v>1645.29</v>
       </c>
-      <c r="AB33" s="50">
+      <c r="AB33" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="50">
+      <c r="AC33" s="92">
         <f>(AB33*100000000-((K33*R_sun)/(J33*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I33))-1))))/(((K33*R_sun)/(J33*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.1020852742</v>
       </c>
-      <c r="AD33" s="50">
+      <c r="AD33" s="92">
         <f>AC33*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>624526378.2</v>
       </c>
-      <c r="AE33" s="50">
+      <c r="AE33" s="92">
         <f t="shared" si="7"/>
         <v>56504994.66</v>
       </c>
@@ -5539,7 +5598,7 @@
       <c r="E34" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="84" t="s">
+      <c r="F34" s="99" t="s">
         <v>98</v>
       </c>
       <c r="G34" s="45">
@@ -5691,7 +5750,7 @@
       <c r="R35" s="65">
         <v>1965104.0</v>
       </c>
-      <c r="S35" s="85">
+      <c r="S35" s="100">
         <v>185.57</v>
       </c>
       <c r="T35" s="52" t="s">
@@ -5701,7 +5760,7 @@
         <v>48</v>
       </c>
       <c r="V35" s="54"/>
-      <c r="W35" s="86"/>
+      <c r="W35" s="101"/>
       <c r="X35" s="42" t="s">
         <v>49</v>
       </c>
@@ -5711,7 +5770,7 @@
       <c r="Z35" s="65">
         <v>36.454</v>
       </c>
-      <c r="AA35" s="87">
+      <c r="AA35" s="102">
         <v>803.228</v>
       </c>
       <c r="AB35" s="50">
@@ -6053,7 +6112,7 @@
       <c r="E39" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="99" t="s">
         <v>108</v>
       </c>
       <c r="G39" s="45">
@@ -6144,103 +6203,103 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="85">
         <v>19.69</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="85">
         <v>1.239</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="87">
         <f>VLOOKUP(B40,'Lookup Tables'!$D$2:$F$4,MATCH(C40,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="87">
         <f t="shared" si="1"/>
         <v>17.39</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="85">
         <v>3185.0</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="85">
         <v>64.92</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="88">
         <v>0.28</v>
       </c>
-      <c r="L40" s="47">
+      <c r="L40" s="89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N40" s="49">
+      <c r="N40" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O40" s="50">
+      <c r="O40" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P40" s="50">
+      <c r="P40" s="92">
         <f>AE40*((K40*R_sun)/(J40*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="42" t="s">
+      <c r="Q40" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="R40" s="42">
+      <c r="R40" s="85">
         <v>1946585.0</v>
       </c>
-      <c r="S40" s="82">
+      <c r="S40" s="93">
         <v>169.48</v>
       </c>
-      <c r="T40" s="52" t="s">
+      <c r="T40" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="U40" s="53" t="s">
+      <c r="U40" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="V40" s="42"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="42" t="s">
+      <c r="V40" s="85"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="Y40" s="42">
+      <c r="Y40" s="85">
         <v>1946615.0</v>
       </c>
-      <c r="Z40" s="42">
+      <c r="Z40" s="85">
         <v>1.723</v>
       </c>
-      <c r="AA40" s="51">
+      <c r="AA40" s="98">
         <v>224.03</v>
       </c>
-      <c r="AB40" s="50">
+      <c r="AB40" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="50">
+      <c r="AC40" s="92">
         <f>(AB40*100000000-((K40*R_sun)/(J40*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I40))-1))))/(((K40*R_sun)/(J40*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.0003396667724</v>
       </c>
-      <c r="AD40" s="50">
+      <c r="AD40" s="92">
         <f>AC40*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>2077977.072</v>
       </c>
-      <c r="AE40" s="50">
+      <c r="AE40" s="92">
         <f t="shared" si="7"/>
         <v>4859432.155</v>
       </c>
@@ -6556,201 +6615,201 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="65">
+      <c r="D44" s="105">
         <v>17.78</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="85">
         <v>-0.206</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="87">
         <f>VLOOKUP(B44,'Lookup Tables'!$D$2:$F$4,MATCH(C44,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="87">
         <f t="shared" si="1"/>
         <v>15.48</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="85">
         <v>3390.0</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="85">
         <v>82.96</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="88">
         <v>0.31</v>
       </c>
-      <c r="L44" s="47">
+      <c r="L44" s="89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M44" s="48">
+      <c r="M44" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N44" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O44" s="50">
+      <c r="O44" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P44" s="92">
         <f>AE44*((K44*R_sun)/(J44*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="42" t="s">
+      <c r="Q44" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="R44" s="65">
+      <c r="R44" s="105">
         <v>1956112.0</v>
       </c>
-      <c r="S44" s="85">
+      <c r="S44" s="106">
         <v>123.67</v>
       </c>
-      <c r="T44" s="52" t="s">
+      <c r="T44" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="U44" s="53" t="s">
+      <c r="U44" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="V44" s="54"/>
-      <c r="W44" s="86"/>
-      <c r="X44" s="42" t="s">
+      <c r="V44" s="86"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="Y44" s="65">
+      <c r="Y44" s="105">
         <v>1956144.0</v>
       </c>
-      <c r="Z44" s="65">
+      <c r="Z44" s="105">
         <v>8.656</v>
       </c>
-      <c r="AA44" s="87">
+      <c r="AA44" s="108">
         <v>338.479</v>
       </c>
-      <c r="AB44" s="50">
+      <c r="AB44" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="50">
+      <c r="AC44" s="92">
         <f>(AB44*100000000-((K44*R_sun)/(J44*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I44))-1))))/(((K44*R_sun)/(J44*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.004497422866</v>
       </c>
-      <c r="AD44" s="50">
+      <c r="AD44" s="92">
         <f>AC44*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>27513852.86</v>
       </c>
-      <c r="AE44" s="50">
+      <c r="AE44" s="92">
         <f t="shared" si="7"/>
         <v>14757306.81</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="105">
         <v>15.54</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="85">
         <v>0.12</v>
       </c>
-      <c r="F45" s="88" t="s">
+      <c r="F45" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="87">
         <f>VLOOKUP(B45,'Lookup Tables'!$D$2:$F$4,MATCH(C45,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="87">
         <f t="shared" si="1"/>
         <v>13.24</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="85">
         <v>3577.0</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="85">
         <v>37.07</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="88">
         <v>0.48</v>
       </c>
-      <c r="L45" s="47">
+      <c r="L45" s="89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M45" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N45" s="49">
+      <c r="N45" s="91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O45" s="50">
+      <c r="O45" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P45" s="50">
+      <c r="P45" s="92">
         <f>AE45*((K45*R_sun)/(J45*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="42" t="s">
+      <c r="Q45" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="85">
         <v>1957076.0</v>
       </c>
-      <c r="S45" s="82">
+      <c r="S45" s="93">
         <v>7743.008</v>
       </c>
-      <c r="T45" s="52" t="s">
+      <c r="T45" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="U45" s="73">
+      <c r="U45" s="95">
         <v>1957108.0</v>
       </c>
-      <c r="V45" s="74">
+      <c r="V45" s="96">
         <v>8.419</v>
       </c>
-      <c r="W45" s="71">
+      <c r="W45" s="97">
         <v>734.565</v>
       </c>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="87"/>
-      <c r="AB45" s="50">
+      <c r="X45" s="105"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="50">
+      <c r="AC45" s="92">
         <f>(AB45*100000000-((K45*R_sun)/(J45*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I45))-1))))/(((K45*R_sun)/(J45*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.002117983875</v>
       </c>
-      <c r="AD45" s="50">
+      <c r="AD45" s="92">
         <f>AC45*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>12957175.35</v>
       </c>
-      <c r="AE45" s="50">
+      <c r="AE45" s="92">
         <f t="shared" si="7"/>
         <v>10675284.17</v>
       </c>
@@ -6826,7 +6885,7 @@
       <c r="U46" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="V46" s="89"/>
+      <c r="V46" s="110"/>
       <c r="W46" s="51"/>
       <c r="X46" s="42" t="s">
         <v>49</v>
@@ -6834,7 +6893,7 @@
       <c r="Y46" s="42">
         <v>1946621.0</v>
       </c>
-      <c r="Z46" s="89">
+      <c r="Z46" s="110">
         <v>57.644</v>
       </c>
       <c r="AA46" s="51">
@@ -6919,7 +6978,7 @@
       <c r="R47" s="56">
         <v>1946592.0</v>
       </c>
-      <c r="S47" s="90">
+      <c r="S47" s="111">
         <v>5982.89</v>
       </c>
       <c r="T47" s="28" t="s">
@@ -7019,7 +7078,7 @@
       <c r="R48" s="56">
         <v>1946593.0</v>
       </c>
-      <c r="S48" s="90">
+      <c r="S48" s="111">
         <v>4334.24</v>
       </c>
       <c r="T48" s="28" t="s">
@@ -7121,7 +7180,7 @@
       <c r="R49" s="56">
         <v>1946594.0</v>
       </c>
-      <c r="S49" s="90">
+      <c r="S49" s="111">
         <v>20936.63</v>
       </c>
       <c r="T49" s="28" t="s">
@@ -7225,7 +7284,7 @@
       <c r="R50" s="56">
         <v>1946595.0</v>
       </c>
-      <c r="S50" s="90">
+      <c r="S50" s="111">
         <v>117194.03</v>
       </c>
       <c r="T50" s="59" t="s">
@@ -7327,7 +7386,7 @@
       <c r="R51" s="56">
         <v>1946596.0</v>
       </c>
-      <c r="S51" s="90">
+      <c r="S51" s="111">
         <v>4026.37</v>
       </c>
       <c r="T51" s="28" t="s">
@@ -7429,7 +7488,7 @@
       <c r="R52" s="56">
         <v>1946597.0</v>
       </c>
-      <c r="S52" s="90">
+      <c r="S52" s="111">
         <v>15167.27</v>
       </c>
       <c r="T52" s="28" t="s">
@@ -7535,7 +7594,7 @@
       <c r="R53" s="56">
         <v>1946598.0</v>
       </c>
-      <c r="S53" s="90">
+      <c r="S53" s="111">
         <v>227.54</v>
       </c>
       <c r="T53" s="28" t="s">
@@ -7576,1029 +7635,1029 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="93">
+      <c r="D54" s="114">
         <v>15.7198</v>
       </c>
-      <c r="E54" s="92">
+      <c r="E54" s="113">
         <v>0.38</v>
       </c>
-      <c r="F54" s="92" t="s">
+      <c r="F54" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="94">
+      <c r="G54" s="115">
         <f>VLOOKUP(B54,'Lookup Tables'!$D$2:$F$4,MATCH(C54,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="H54" s="95">
+      <c r="H54" s="116">
         <f t="shared" si="1"/>
         <v>13.4198</v>
       </c>
-      <c r="I54" s="92">
+      <c r="I54" s="113">
         <v>3951.0</v>
       </c>
-      <c r="J54" s="93">
+      <c r="J54" s="114">
         <v>44.0727</v>
       </c>
-      <c r="K54" s="96">
+      <c r="K54" s="117">
         <v>0.55</v>
       </c>
-      <c r="L54" s="97">
+      <c r="L54" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M54" s="98">
+      <c r="M54" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N54" s="99">
+      <c r="N54" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O54" s="100">
+      <c r="O54" s="121">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P54" s="100" t="str">
+      <c r="P54" s="121" t="str">
         <f>AE54*((K54*R_sun)/(J54*cminpc))^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q54" s="92" t="s">
+      <c r="Q54" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="R54" s="101">
+      <c r="R54" s="122">
         <v>1946693.0</v>
       </c>
-      <c r="S54" s="102">
+      <c r="S54" s="123">
         <v>6560.101</v>
       </c>
-      <c r="T54" s="103" t="s">
+      <c r="T54" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="104" t="s">
+      <c r="U54" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V54" s="101"/>
-      <c r="W54" s="105"/>
-      <c r="X54" s="92" t="s">
+      <c r="V54" s="122"/>
+      <c r="W54" s="126"/>
+      <c r="X54" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Y54" s="101">
+      <c r="Y54" s="122">
         <v>1946694.0</v>
       </c>
-      <c r="Z54" s="101">
+      <c r="Z54" s="122">
         <v>49.453</v>
       </c>
-      <c r="AA54" s="105">
+      <c r="AA54" s="126">
         <v>1058.742</v>
       </c>
-      <c r="AB54" s="100">
+      <c r="AB54" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="100">
+      <c r="AC54" s="121">
         <f>(AB54*100000000-((K54*R_sun)/(J54*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I54))-1))))/(((K54*R_sun)/(J54*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>-0.0005531752882</v>
       </c>
-      <c r="AD54" s="100">
+      <c r="AD54" s="121">
         <f>AC54*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>-3384156.647</v>
       </c>
-      <c r="AE54" s="100" t="str">
+      <c r="AE54" s="121" t="str">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="101" t="s">
+      <c r="C55" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="106">
+      <c r="D55" s="127">
         <v>15.375</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="101" t="s">
+      <c r="F55" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="94">
+      <c r="G55" s="115">
         <f>VLOOKUP(B55,'Lookup Tables'!$D$2:$F$4,MATCH(C55,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="H55" s="95">
+      <c r="H55" s="116">
         <f t="shared" si="1"/>
         <v>13.075</v>
       </c>
-      <c r="I55" s="101">
+      <c r="I55" s="122">
         <v>3506.0</v>
       </c>
-      <c r="J55" s="106">
+      <c r="J55" s="127">
         <v>22.4793</v>
       </c>
-      <c r="K55" s="101">
+      <c r="K55" s="122">
         <v>0.38</v>
       </c>
-      <c r="L55" s="97">
+      <c r="L55" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M55" s="98">
+      <c r="M55" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N55" s="99">
+      <c r="N55" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O55" s="100">
+      <c r="O55" s="121">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P55" s="100">
+      <c r="P55" s="121">
         <f>AE55*((K55*R_sun)/(J55*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="92" t="s">
+      <c r="Q55" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="R55" s="101">
+      <c r="R55" s="122">
         <v>1951485.0</v>
       </c>
-      <c r="S55" s="102">
+      <c r="S55" s="123">
         <v>1078.792</v>
       </c>
-      <c r="T55" s="103" t="s">
+      <c r="T55" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="104" t="s">
+      <c r="U55" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V55" s="101"/>
-      <c r="W55" s="105"/>
-      <c r="X55" s="92" t="s">
+      <c r="V55" s="122"/>
+      <c r="W55" s="126"/>
+      <c r="X55" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Y55" s="101">
+      <c r="Y55" s="122">
         <v>1951484.0</v>
       </c>
-      <c r="Z55" s="101">
+      <c r="Z55" s="122">
         <v>66.4</v>
       </c>
-      <c r="AA55" s="105">
+      <c r="AA55" s="126">
         <v>1306.342</v>
       </c>
-      <c r="AB55" s="100">
+      <c r="AB55" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC55" s="100">
+      <c r="AC55" s="121">
         <f>(AB55*100000000-((K55*R_sun)/(J55*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I55))-1))))/(((K55*R_sun)/(J55*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.001295702711</v>
       </c>
-      <c r="AD55" s="100">
+      <c r="AD55" s="121">
         <f>AC55*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>7926711.544</v>
       </c>
-      <c r="AE55" s="100">
+      <c r="AE55" s="121">
         <f t="shared" si="7"/>
         <v>8641915.458</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="107" t="s">
+      <c r="A56" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="108" t="s">
+      <c r="B56" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="101" t="s">
+      <c r="C56" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="109">
+      <c r="D56" s="130">
         <f>13.97+1.19</f>
         <v>15.16</v>
       </c>
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="110" t="s">
+      <c r="F56" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="G56" s="94">
+      <c r="G56" s="115">
         <f>VLOOKUP(B56,'Lookup Tables'!$D$2:$F$4,MATCH(C56,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.8</v>
       </c>
-      <c r="H56" s="95">
+      <c r="H56" s="116">
         <f t="shared" si="1"/>
         <v>12.36</v>
       </c>
-      <c r="I56" s="101">
+      <c r="I56" s="122">
         <v>3927.0</v>
       </c>
-      <c r="J56" s="106">
+      <c r="J56" s="127">
         <v>53.8027</v>
       </c>
-      <c r="K56" s="101">
+      <c r="K56" s="122">
         <v>0.61</v>
       </c>
-      <c r="L56" s="97">
+      <c r="L56" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M56" s="98">
+      <c r="M56" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N56" s="99">
+      <c r="N56" s="120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O56" s="100">
+      <c r="O56" s="121">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P56" s="100">
+      <c r="P56" s="121">
         <f>AE56*((K56*R_sun)/(J56*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="111" t="s">
+      <c r="Q56" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="R56" s="108">
+      <c r="R56" s="129">
         <v>1956099.0</v>
       </c>
-      <c r="S56" s="112">
+      <c r="S56" s="133">
         <v>334.78</v>
       </c>
-      <c r="T56" s="103" t="s">
+      <c r="T56" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="U56" s="113">
+      <c r="U56" s="134">
         <v>1957116.0</v>
       </c>
-      <c r="V56" s="114">
+      <c r="V56" s="135">
         <v>17.734</v>
       </c>
-      <c r="W56" s="115">
+      <c r="W56" s="136">
         <v>1375.074</v>
       </c>
-      <c r="X56" s="111" t="s">
+      <c r="X56" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="Y56" s="108">
+      <c r="Y56" s="129">
         <v>1956143.0</v>
       </c>
-      <c r="Z56" s="108">
+      <c r="Z56" s="129">
         <v>1.708</v>
       </c>
-      <c r="AA56" s="116">
+      <c r="AA56" s="137">
         <v>505.322</v>
       </c>
-      <c r="AB56" s="100">
+      <c r="AB56" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="100">
+      <c r="AC56" s="121">
         <f>(AB56*100000000-((K56*R_sun)/(J56*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I56))-1))))/(((K56*R_sun)/(J56*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.006552722357</v>
       </c>
-      <c r="AD56" s="100">
+      <c r="AD56" s="121">
         <f>AC56*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>40087544.39</v>
       </c>
-      <c r="AE56" s="100">
+      <c r="AE56" s="121">
         <f t="shared" si="7"/>
         <v>17349783.71</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="109">
+      <c r="D57" s="130">
         <f>12.67+1.19</f>
         <v>13.86</v>
       </c>
-      <c r="E57" s="101" t="s">
+      <c r="E57" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="94">
+      <c r="G57" s="115">
         <f>VLOOKUP(B57,'Lookup Tables'!$D$2:$F$4,MATCH(C57,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.8</v>
       </c>
-      <c r="H57" s="95">
+      <c r="H57" s="116">
         <f t="shared" si="1"/>
         <v>11.06</v>
       </c>
-      <c r="I57" s="101">
+      <c r="I57" s="122">
         <v>4028.0</v>
       </c>
-      <c r="J57" s="106">
+      <c r="J57" s="127">
         <v>48.6326</v>
       </c>
-      <c r="K57" s="101">
+      <c r="K57" s="122">
         <v>0.65</v>
       </c>
-      <c r="L57" s="97">
+      <c r="L57" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M57" s="98">
+      <c r="M57" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N57" s="99">
+      <c r="N57" s="120">
         <f t="shared" si="9"/>
         <v>0.0000000001294797118</v>
       </c>
-      <c r="O57" s="100">
+      <c r="O57" s="121">
         <f t="shared" si="5"/>
         <v>0.0000000001294797118</v>
       </c>
-      <c r="P57" s="100">
+      <c r="P57" s="121">
         <f>AE57*((K57*R_sun)/(J57*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="111" t="s">
+      <c r="Q57" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="R57" s="108">
+      <c r="R57" s="129">
         <v>1956096.0</v>
       </c>
-      <c r="S57" s="112">
+      <c r="S57" s="133">
         <v>334.62</v>
       </c>
-      <c r="T57" s="103" t="s">
+      <c r="T57" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="U57" s="113">
+      <c r="U57" s="134">
         <v>1957117.0</v>
       </c>
-      <c r="V57" s="114">
+      <c r="V57" s="135">
         <v>53.179</v>
       </c>
-      <c r="W57" s="115">
+      <c r="W57" s="136">
         <v>3813.051</v>
       </c>
-      <c r="X57" s="111" t="s">
+      <c r="X57" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="Y57" s="108">
+      <c r="Y57" s="129">
         <v>1956140.0</v>
       </c>
-      <c r="Z57" s="108">
+      <c r="Z57" s="129">
         <v>5.12</v>
       </c>
-      <c r="AA57" s="116">
+      <c r="AA57" s="137">
         <v>1376.149</v>
       </c>
-      <c r="AB57" s="100">
+      <c r="AB57" s="121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC57" s="100">
+      <c r="AC57" s="121">
         <f>(AB57*100000000-((K57*R_sun)/(J57*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*I57))-1))))/(((K57*R_sun)/(J57*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.0193922356</v>
       </c>
-      <c r="AD57" s="100">
+      <c r="AD57" s="121">
         <f>AC57*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>118635746.1</v>
       </c>
-      <c r="AE57" s="100">
+      <c r="AE57" s="121">
         <f t="shared" si="7"/>
         <v>27663854.6</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="117"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="117"/>
-      <c r="V58" s="117"/>
-      <c r="W58" s="117"/>
-      <c r="X58" s="117"/>
-      <c r="Y58" s="117"/>
-      <c r="Z58" s="117"/>
-      <c r="AA58" s="117"/>
-      <c r="AB58" s="120"/>
-      <c r="AC58" s="120"/>
-      <c r="AD58" s="120"/>
-      <c r="AE58" s="120"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="141"/>
+      <c r="O58" s="141"/>
+      <c r="P58" s="141"/>
+      <c r="Q58" s="138"/>
+      <c r="R58" s="138"/>
+      <c r="S58" s="138"/>
+      <c r="T58" s="138"/>
+      <c r="U58" s="138"/>
+      <c r="V58" s="138"/>
+      <c r="W58" s="138"/>
+      <c r="X58" s="138"/>
+      <c r="Y58" s="138"/>
+      <c r="Z58" s="138"/>
+      <c r="AA58" s="138"/>
+      <c r="AB58" s="141"/>
+      <c r="AC58" s="141"/>
+      <c r="AD58" s="141"/>
+      <c r="AE58" s="141"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="121" t="s">
+      <c r="C59" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="121">
+      <c r="D59" s="142">
         <v>22.43</v>
       </c>
-      <c r="E59" s="121">
+      <c r="E59" s="142">
         <v>7.7</v>
       </c>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121">
+      <c r="F59" s="142"/>
+      <c r="G59" s="142">
         <v>-2.8</v>
       </c>
-      <c r="H59" s="121">
+      <c r="H59" s="142">
         <v>19.63</v>
       </c>
-      <c r="I59" s="121">
+      <c r="I59" s="142">
         <v>2500.0</v>
       </c>
-      <c r="J59" s="121">
+      <c r="J59" s="142">
         <v>12.11</v>
       </c>
-      <c r="K59" s="121">
+      <c r="K59" s="142">
         <v>0.11</v>
       </c>
-      <c r="L59" s="122">
+      <c r="L59" s="143">
         <v>2.46E-15</v>
       </c>
-      <c r="M59" s="122">
+      <c r="M59" s="143">
         <v>3.54E-16</v>
       </c>
-      <c r="N59" s="122">
+      <c r="N59" s="143">
         <v>9.09E-14</v>
       </c>
-      <c r="O59" s="122">
+      <c r="O59" s="143">
         <v>9.09E-14</v>
       </c>
-      <c r="P59" s="122">
+      <c r="P59" s="143">
         <v>4.08E-14</v>
       </c>
-      <c r="Q59" s="121" t="s">
+      <c r="Q59" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="R59" s="121">
+      <c r="R59" s="142">
         <v>1167198.0</v>
       </c>
-      <c r="S59" s="121">
+      <c r="S59" s="142">
         <v>946.0</v>
       </c>
-      <c r="T59" s="121" t="s">
+      <c r="T59" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="U59" s="121">
+      <c r="U59" s="142">
         <v>1167200.0</v>
       </c>
-      <c r="V59" s="121">
+      <c r="V59" s="142">
         <v>0.006</v>
       </c>
-      <c r="W59" s="121">
+      <c r="W59" s="142">
         <v>1599.0</v>
       </c>
-      <c r="X59" s="121" t="s">
+      <c r="X59" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="Y59" s="121">
+      <c r="Y59" s="142">
         <v>1167200.0</v>
       </c>
-      <c r="Z59" s="121">
+      <c r="Z59" s="142">
         <v>0.006</v>
       </c>
-      <c r="AA59" s="121">
+      <c r="AA59" s="142">
         <v>1599.0</v>
       </c>
-      <c r="AB59" s="122">
+      <c r="AB59" s="143">
         <v>5.92E-17</v>
       </c>
-      <c r="AC59" s="122">
+      <c r="AC59" s="143">
         <v>8.06E-6</v>
       </c>
-      <c r="AD59" s="122">
+      <c r="AD59" s="143">
         <v>49300.0</v>
       </c>
-      <c r="AE59" s="122">
+      <c r="AE59" s="143">
         <v>973000.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="121" t="s">
+      <c r="B60" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="121" t="s">
+      <c r="C60" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="121">
+      <c r="D60" s="142">
         <v>14.052</v>
       </c>
-      <c r="E60" s="121">
+      <c r="E60" s="142">
         <v>1.0</v>
       </c>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121">
+      <c r="F60" s="142"/>
+      <c r="G60" s="142">
         <v>-8.0</v>
       </c>
-      <c r="H60" s="121">
+      <c r="H60" s="142">
         <v>6.052</v>
       </c>
-      <c r="I60" s="121">
+      <c r="I60" s="142">
         <v>3250.0</v>
       </c>
-      <c r="J60" s="121">
+      <c r="J60" s="142">
         <v>16.0</v>
       </c>
-      <c r="K60" s="121">
+      <c r="K60" s="142">
         <v>0.39</v>
       </c>
-      <c r="L60" s="122">
+      <c r="L60" s="143">
         <v>2.44E-10</v>
       </c>
-      <c r="M60" s="122">
+      <c r="M60" s="143">
         <v>3.34E-10</v>
       </c>
-      <c r="N60" s="122">
+      <c r="N60" s="143">
         <v>9.02E-9</v>
       </c>
-      <c r="O60" s="122">
+      <c r="O60" s="143">
         <v>9.02E-9</v>
       </c>
-      <c r="P60" s="122">
+      <c r="P60" s="143">
         <v>3.95E-11</v>
       </c>
-      <c r="Q60" s="121" t="s">
+      <c r="Q60" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="R60" s="121">
+      <c r="R60" s="142">
         <v>1167205.0</v>
       </c>
-      <c r="S60" s="121">
+      <c r="S60" s="142">
         <v>35092.0</v>
       </c>
-      <c r="T60" s="121" t="s">
+      <c r="T60" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="U60" s="121">
+      <c r="U60" s="142">
         <v>1167194.0</v>
       </c>
-      <c r="V60" s="121">
+      <c r="V60" s="142">
         <v>952.0</v>
       </c>
-      <c r="W60" s="121">
+      <c r="W60" s="142">
         <v>44205.0</v>
       </c>
-      <c r="X60" s="121" t="s">
+      <c r="X60" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="Y60" s="121">
+      <c r="Y60" s="142">
         <v>1167194.0</v>
       </c>
-      <c r="Z60" s="121">
+      <c r="Z60" s="142">
         <v>952.0</v>
       </c>
-      <c r="AA60" s="121">
+      <c r="AA60" s="142">
         <v>44205.0</v>
       </c>
-      <c r="AB60" s="122">
+      <c r="AB60" s="143">
         <v>1.6E-11</v>
       </c>
-      <c r="AC60" s="122">
+      <c r="AC60" s="143">
         <v>0.721</v>
       </c>
-      <c r="AD60" s="122">
+      <c r="AD60" s="143">
         <v>4.41E9</v>
       </c>
-      <c r="AE60" s="122">
+      <c r="AE60" s="143">
         <v>1.31E8</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="123"/>
-      <c r="B61" s="123"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="127"/>
-      <c r="N61" s="128"/>
-      <c r="O61" s="127"/>
-      <c r="P61" s="127"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123"/>
-      <c r="W61" s="123"/>
-      <c r="X61" s="123"/>
-      <c r="Y61" s="123"/>
-      <c r="Z61" s="123"/>
-      <c r="AA61" s="123"/>
-      <c r="AB61" s="127"/>
-      <c r="AC61" s="127"/>
-      <c r="AD61" s="127"/>
-      <c r="AE61" s="127"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="148"/>
+      <c r="N61" s="149"/>
+      <c r="O61" s="148"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="144"/>
+      <c r="R61" s="144"/>
+      <c r="S61" s="144"/>
+      <c r="T61" s="144"/>
+      <c r="U61" s="144"/>
+      <c r="V61" s="144"/>
+      <c r="W61" s="144"/>
+      <c r="X61" s="144"/>
+      <c r="Y61" s="144"/>
+      <c r="Z61" s="144"/>
+      <c r="AA61" s="144"/>
+      <c r="AB61" s="148"/>
+      <c r="AC61" s="148"/>
+      <c r="AD61" s="148"/>
+      <c r="AE61" s="148"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="130" t="s">
+      <c r="B62" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="AB62" s="122"/>
-      <c r="AC62" s="122"/>
-      <c r="AD62" s="122"/>
-      <c r="AE62" s="122"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="153"/>
+      <c r="P62" s="153"/>
+      <c r="AB62" s="143"/>
+      <c r="AC62" s="143"/>
+      <c r="AD62" s="143"/>
+      <c r="AE62" s="143"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="132"/>
-      <c r="AB63" s="122"/>
-      <c r="AC63" s="122"/>
-      <c r="AD63" s="122"/>
-      <c r="AE63" s="122"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="153"/>
+      <c r="O63" s="153"/>
+      <c r="P63" s="153"/>
+      <c r="AB63" s="143"/>
+      <c r="AC63" s="143"/>
+      <c r="AD63" s="143"/>
+      <c r="AE63" s="143"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="134" t="s">
+      <c r="A64" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="G64" s="131"/>
-      <c r="H64" s="131"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="AB64" s="122"/>
-      <c r="AC64" s="122"/>
-      <c r="AD64" s="122"/>
-      <c r="AE64" s="122"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="153"/>
+      <c r="O64" s="153"/>
+      <c r="P64" s="153"/>
+      <c r="AB64" s="143"/>
+      <c r="AC64" s="143"/>
+      <c r="AD64" s="143"/>
+      <c r="AE64" s="143"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="135" t="s">
+      <c r="A65" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="121" t="s">
+      <c r="B65" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="132"/>
-      <c r="AB65" s="122"/>
-      <c r="AC65" s="122"/>
-      <c r="AD65" s="122"/>
-      <c r="AE65" s="122"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="153"/>
+      <c r="N65" s="153"/>
+      <c r="O65" s="153"/>
+      <c r="P65" s="153"/>
+      <c r="AB65" s="143"/>
+      <c r="AC65" s="143"/>
+      <c r="AD65" s="143"/>
+      <c r="AE65" s="143"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="AB66" s="122"/>
-      <c r="AC66" s="122"/>
-      <c r="AD66" s="122"/>
-      <c r="AE66" s="122"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="153"/>
+      <c r="P66" s="153"/>
+      <c r="AB66" s="143"/>
+      <c r="AC66" s="143"/>
+      <c r="AD66" s="143"/>
+      <c r="AE66" s="143"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="137" t="s">
+      <c r="A67" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="142" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="130" t="s">
+      <c r="B69" s="151" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="142" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="G71" s="131"/>
-      <c r="H71" s="131"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="132"/>
-      <c r="M71" s="132"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="132"/>
-      <c r="AB71" s="122"/>
-      <c r="AC71" s="122"/>
-      <c r="AD71" s="122"/>
-      <c r="AE71" s="122"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="153"/>
+      <c r="O71" s="153"/>
+      <c r="P71" s="153"/>
+      <c r="AB71" s="143"/>
+      <c r="AC71" s="143"/>
+      <c r="AD71" s="143"/>
+      <c r="AE71" s="143"/>
     </row>
     <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="138"/>
-      <c r="B73" s="130" t="s">
+      <c r="A73" s="159"/>
+      <c r="B73" s="151" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="138"/>
-      <c r="B74" s="139" t="s">
+      <c r="A74" s="159"/>
+      <c r="B74" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="AB74" s="122"/>
-      <c r="AC74" s="122"/>
-      <c r="AD74" s="122"/>
-      <c r="AE74" s="122"/>
+      <c r="AB74" s="143"/>
+      <c r="AC74" s="143"/>
+      <c r="AD74" s="143"/>
+      <c r="AE74" s="143"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="AB75" s="122"/>
-      <c r="AC75" s="122"/>
-      <c r="AD75" s="122"/>
-      <c r="AE75" s="122"/>
+      <c r="AB75" s="143"/>
+      <c r="AC75" s="143"/>
+      <c r="AD75" s="143"/>
+      <c r="AE75" s="143"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="121" t="s">
+      <c r="B76" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="AB76" s="122"/>
-      <c r="AC76" s="122"/>
-      <c r="AD76" s="122"/>
-      <c r="AE76" s="122"/>
+      <c r="AB76" s="143"/>
+      <c r="AC76" s="143"/>
+      <c r="AD76" s="143"/>
+      <c r="AE76" s="143"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="121" t="s">
+      <c r="B77" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="AB77" s="122"/>
-      <c r="AC77" s="122"/>
-      <c r="AD77" s="122"/>
-      <c r="AE77" s="122"/>
+      <c r="AB77" s="143"/>
+      <c r="AC77" s="143"/>
+      <c r="AD77" s="143"/>
+      <c r="AE77" s="143"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="AB78" s="122"/>
-      <c r="AC78" s="122"/>
-      <c r="AD78" s="122"/>
-      <c r="AE78" s="122"/>
+      <c r="AB78" s="143"/>
+      <c r="AC78" s="143"/>
+      <c r="AD78" s="143"/>
+      <c r="AE78" s="143"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="121" t="s">
+      <c r="B79" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="AB79" s="122"/>
-      <c r="AC79" s="122"/>
-      <c r="AD79" s="122"/>
-      <c r="AE79" s="122"/>
+      <c r="AB79" s="143"/>
+      <c r="AC79" s="143"/>
+      <c r="AD79" s="143"/>
+      <c r="AE79" s="143"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="121" t="s">
+      <c r="B80" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="AB80" s="122"/>
-      <c r="AC80" s="122"/>
-      <c r="AD80" s="122"/>
-      <c r="AE80" s="122"/>
+      <c r="AB80" s="143"/>
+      <c r="AC80" s="143"/>
+      <c r="AD80" s="143"/>
+      <c r="AE80" s="143"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="121" t="s">
+      <c r="B81" s="142" t="s">
         <v>168</v>
       </c>
-      <c r="AB81" s="122"/>
-      <c r="AC81" s="122"/>
-      <c r="AD81" s="122"/>
-      <c r="AE81" s="122"/>
+      <c r="AB81" s="143"/>
+      <c r="AC81" s="143"/>
+      <c r="AD81" s="143"/>
+      <c r="AE81" s="143"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="121" t="s">
+      <c r="B82" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="AB82" s="122"/>
-      <c r="AC82" s="122"/>
-      <c r="AD82" s="122"/>
-      <c r="AE82" s="122"/>
+      <c r="AB82" s="143"/>
+      <c r="AC82" s="143"/>
+      <c r="AD82" s="143"/>
+      <c r="AE82" s="143"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="121" t="s">
+      <c r="B83" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="AB83" s="122"/>
-      <c r="AC83" s="122"/>
-      <c r="AD83" s="122"/>
-      <c r="AE83" s="122"/>
+      <c r="AB83" s="143"/>
+      <c r="AC83" s="143"/>
+      <c r="AD83" s="143"/>
+      <c r="AE83" s="143"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="AB84" s="122"/>
-      <c r="AC84" s="122"/>
-      <c r="AD84" s="122"/>
-      <c r="AE84" s="122"/>
+      <c r="AB84" s="143"/>
+      <c r="AC84" s="143"/>
+      <c r="AD84" s="143"/>
+      <c r="AE84" s="143"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="130" t="s">
+      <c r="B85" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="J85" s="130" t="s">
+      <c r="J85" s="151" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="130" t="s">
+      <c r="B86" s="151"/>
+      <c r="C86" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="G86" s="130" t="s">
+      <c r="G86" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="H86" s="130"/>
-      <c r="J86" s="121" t="s">
+      <c r="H86" s="151"/>
+      <c r="J86" s="142" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="121" t="s">
+      <c r="B87" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="121" t="s">
+      <c r="C87" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G87" s="121" t="s">
+      <c r="G87" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="J87" s="121" t="s">
+      <c r="J87" s="142" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="121" t="s">
+      <c r="B88" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="121" t="s">
+      <c r="C88" s="142" t="s">
         <v>180</v>
       </c>
-      <c r="G88" s="121" t="s">
+      <c r="G88" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="J88" s="121" t="s">
+      <c r="J88" s="142" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="121" t="s">
+      <c r="B89" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="G89" s="121" t="s">
+      <c r="G89" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="J89" s="121" t="s">
+      <c r="J89" s="142" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="121" t="s">
+      <c r="B90" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="121" t="s">
+      <c r="C90" s="142" t="s">
         <v>180</v>
       </c>
-      <c r="G90" s="121" t="s">
+      <c r="G90" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="J90" s="121" t="s">
+      <c r="J90" s="142" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="J91" s="121" t="s">
+      <c r="J91" s="142" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="151" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="121" t="s">
+      <c r="B93" s="142" t="s">
         <v>189</v>
       </c>
     </row>
@@ -8611,27 +8670,27 @@
     <row r="100" ht="15.75" customHeight="1"/>
     <row r="101" ht="15.75" customHeight="1"/>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="I102" s="122"/>
+      <c r="I102" s="143"/>
     </row>
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="I104" s="122"/>
+      <c r="I104" s="143"/>
     </row>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="I107" s="122"/>
+      <c r="I107" s="143"/>
     </row>
     <row r="108" ht="15.75" customHeight="1"/>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="130"/>
+      <c r="C109" s="151"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="I110" s="122"/>
+      <c r="I110" s="143"/>
     </row>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="I112" s="122"/>
+      <c r="I112" s="143"/>
     </row>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
@@ -9601,111 +9660,111 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="161" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="121">
+      <c r="E2" s="142">
         <v>-2.8</v>
       </c>
-      <c r="F2" s="121">
+      <c r="F2" s="142">
         <v>-2.3</v>
       </c>
-      <c r="H2" s="141"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="142">
         <v>-8.0</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="142">
         <v>-2.3</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="163" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="142">
         <v>-2.8</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="142">
         <v>0.0</v>
       </c>
-      <c r="H4" s="143">
+      <c r="H4" s="164">
         <v>2.99792E10</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="163" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="H6" s="143">
+      <c r="H6" s="164">
         <v>6.62607E-27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="H7" s="142" t="s">
+      <c r="H7" s="163" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="H8" s="143">
+      <c r="H8" s="164">
         <v>1.38065E-16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="H9" s="142" t="s">
+      <c r="H9" s="163" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="H10" s="143">
+      <c r="H10" s="164">
         <v>6.957E10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="H11" s="142" t="s">
+      <c r="H11" s="163" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="H12" s="143">
+      <c r="H12" s="164">
         <v>3.086E18</v>
       </c>
     </row>

--- a/target_selection_data/inputs/hand_checked/mdwarf_isr_continuously_updated.xlsx
+++ b/target_selection_data/inputs/hand_checked/mdwarf_isr_continuously_updated.xlsx
@@ -2455,8 +2455,9 @@
     <col customWidth="1" min="28" max="28" width="24.44"/>
     <col customWidth="1" min="29" max="30" width="10.56"/>
     <col customWidth="1" min="31" max="31" width="12.44"/>
-    <col customWidth="1" min="32" max="37" width="10.56"/>
-    <col customWidth="1" min="38" max="38" width="90.22"/>
+    <col customWidth="1" min="32" max="36" width="10.56"/>
+    <col customWidth="1" min="37" max="37" width="10.78"/>
+    <col customWidth="1" min="38" max="38" width="21.67"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">

--- a/target_selection_data/inputs/hand_checked/mdwarf_isr_continuously_updated.xlsx
+++ b/target_selection_data/inputs/hand_checked/mdwarf_isr_continuously_updated.xlsx
@@ -34,6 +34,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="T2">
+      <text>
+        <t xml:space="preserve">ACQ does't matter for STIS since they are done with a CCD.
+======</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="W2">
       <text>
         <t xml:space="preserve">don't change this column name as it is used in a python script
@@ -1316,7 +1322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1362,18 +1368,24 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
+      <sz val="12.0"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1393,6 +1405,13 @@
       <color rgb="FF000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -1404,11 +1423,30 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1682,7 +1720,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1772,7 +1810,10 @@
     </xf>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="11" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1781,14 +1822,23 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1797,7 +1847,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1818,10 +1868,16 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1838,7 +1894,10 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1859,7 +1918,7 @@
     <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1887,7 +1946,10 @@
     <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="11" fontId="6" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1897,7 +1959,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1923,13 +1985,19 @@
     <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="11" fontId="6" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -1944,27 +2012,39 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="12" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="12" fontId="16" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="12" fontId="16" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="12" fontId="16" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="12" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="12" fontId="20" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="10" fillId="12" fontId="20" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="12" fontId="20" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="12" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="11" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1976,19 +2056,19 @@
     <xf borderId="18" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="26" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2718,19 +2798,19 @@
       <c r="S5" s="41">
         <v>12.1</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="41">
+      <c r="U5" s="49">
         <v>1934461.0</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="50">
         <v>10889.0</v>
       </c>
       <c r="W5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y5" s="41"/>
@@ -2833,13 +2913,13 @@
       <c r="S6" s="41">
         <v>2.19</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="49">
         <v>1934487.0</v>
       </c>
-      <c r="V6" s="49">
+      <c r="V6" s="50">
         <v>11378.58</v>
       </c>
       <c r="W6" s="41" t="s">
@@ -2848,18 +2928,18 @@
       <c r="X6" s="41">
         <v>1957082.0</v>
       </c>
-      <c r="Y6" s="49">
+      <c r="Y6" s="53">
         <v>23.092</v>
       </c>
-      <c r="Z6" s="49">
+      <c r="Z6" s="53">
         <v>1743.544</v>
       </c>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
       <c r="AC6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="53">
+      <c r="AD6" s="55">
         <v>1982908.0</v>
       </c>
       <c r="AE6" s="41">
@@ -2869,7 +2949,7 @@
         <v>635.856</v>
       </c>
       <c r="AG6" s="41"/>
-      <c r="AH6" s="54" t="s">
+      <c r="AH6" s="56" t="s">
         <v>62</v>
       </c>
       <c r="AI6" s="48">
@@ -2957,10 +3037,10 @@
       <c r="T7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="57">
         <v>1934465.0</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="58">
         <v>68199.43</v>
       </c>
       <c r="W7" s="30" t="s">
@@ -3025,7 +3105,7 @@
       <c r="F8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="59" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="33">
@@ -3071,13 +3151,13 @@
       <c r="S8" s="30">
         <v>20.66</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="57">
         <v>1934466.0</v>
       </c>
-      <c r="V8" s="40">
+      <c r="V8" s="58">
         <v>83679.66</v>
       </c>
       <c r="W8" s="30" t="s">
@@ -3186,35 +3266,35 @@
       <c r="S9" s="41">
         <v>12.34</v>
       </c>
-      <c r="T9" s="51" t="s">
+      <c r="T9" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="60">
         <v>1956118.0</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="61">
         <v>185.46</v>
       </c>
       <c r="W9" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="50" t="s">
+      <c r="X9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
       <c r="AA9" s="41"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="AD9" s="50">
+      <c r="AD9" s="51">
         <v>1956148.0</v>
       </c>
-      <c r="AE9" s="50">
+      <c r="AE9" s="51">
         <v>50.015</v>
       </c>
-      <c r="AF9" s="50">
+      <c r="AF9" s="51">
         <v>1030.806</v>
       </c>
       <c r="AG9" s="48"/>
@@ -3257,7 +3337,7 @@
       <c r="F10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="62" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="45">
@@ -3303,13 +3383,13 @@
       <c r="S10" s="41">
         <v>12.33</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="49">
         <v>1934468.0</v>
       </c>
-      <c r="V10" s="49">
+      <c r="V10" s="50">
         <v>71476.73</v>
       </c>
       <c r="W10" s="41" t="s">
@@ -3318,10 +3398,10 @@
       <c r="X10" s="41">
         <v>1957085.0</v>
       </c>
-      <c r="Y10" s="59">
+      <c r="Y10" s="63">
         <v>23.875</v>
       </c>
-      <c r="Z10" s="59">
+      <c r="Z10" s="63">
         <v>1797.403</v>
       </c>
       <c r="AA10" s="41"/>
@@ -3339,7 +3419,7 @@
         <v>589.5</v>
       </c>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="54" t="s">
+      <c r="AH10" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AI10" s="48">
@@ -3424,13 +3504,13 @@
       <c r="S11" s="30">
         <v>11.01</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="57">
         <v>1934459.0</v>
       </c>
-      <c r="V11" s="40">
+      <c r="V11" s="58">
         <v>28404.0</v>
       </c>
       <c r="W11" s="30" t="s">
@@ -3539,25 +3619,25 @@
       <c r="S12" s="41">
         <v>10.18</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="49">
         <v>1934469.0</v>
       </c>
-      <c r="V12" s="49">
+      <c r="V12" s="50">
         <v>42517.2</v>
       </c>
       <c r="W12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X12" s="60">
+      <c r="X12" s="64">
         <v>1957086.0</v>
       </c>
-      <c r="Y12" s="61">
+      <c r="Y12" s="65">
         <v>14.725</v>
       </c>
-      <c r="Z12" s="59">
+      <c r="Z12" s="63">
         <v>1168.171</v>
       </c>
       <c r="AA12" s="41"/>
@@ -3575,7 +3655,7 @@
         <v>395.236</v>
       </c>
       <c r="AG12" s="48"/>
-      <c r="AH12" s="54" t="s">
+      <c r="AH12" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AI12" s="48">
@@ -3660,25 +3740,25 @@
       <c r="S13" s="30">
         <v>9.42</v>
       </c>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="57">
         <v>1934470.0</v>
       </c>
-      <c r="V13" s="40">
+      <c r="V13" s="58">
         <v>17906.16</v>
       </c>
       <c r="W13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="X13" s="62">
+      <c r="X13" s="66">
         <v>1957087.0</v>
       </c>
-      <c r="Y13" s="63">
+      <c r="Y13" s="67">
         <v>41.638</v>
       </c>
-      <c r="Z13" s="64">
+      <c r="Z13" s="68">
         <v>3019.214</v>
       </c>
       <c r="AA13" s="30"/>
@@ -3735,7 +3815,7 @@
       <c r="F14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="62" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="45">
@@ -3781,19 +3861,19 @@
       <c r="S14" s="41">
         <v>2.91</v>
       </c>
-      <c r="T14" s="41" t="s">
+      <c r="T14" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="49">
         <v>1934471.0</v>
       </c>
-      <c r="V14" s="49">
+      <c r="V14" s="50">
         <v>17639.36</v>
       </c>
       <c r="W14" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X14" s="50" t="s">
+      <c r="X14" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y14" s="41"/>
@@ -3896,19 +3976,19 @@
       <c r="S15" s="41">
         <v>4.89</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="T15" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="49">
         <v>1934472.0</v>
       </c>
-      <c r="V15" s="49">
+      <c r="V15" s="50">
         <v>39413.5</v>
       </c>
       <c r="W15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X15" s="50" t="s">
+      <c r="X15" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y15" s="41"/>
@@ -4005,19 +4085,19 @@
       <c r="S16" s="41">
         <v>-5.63</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="T16" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="U16" s="41">
+      <c r="U16" s="49">
         <v>1934473.0</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="50">
         <v>5113.12</v>
       </c>
       <c r="W16" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X16" s="50" t="s">
+      <c r="X16" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y16" s="41"/>
@@ -4120,19 +4200,19 @@
       <c r="S17" s="41">
         <v>-8.32</v>
       </c>
-      <c r="T17" s="41" t="s">
+      <c r="T17" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="41">
+      <c r="U17" s="49">
         <v>1934474.0</v>
       </c>
-      <c r="V17" s="49">
+      <c r="V17" s="50">
         <v>11018.23</v>
       </c>
       <c r="W17" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X17" s="50" t="s">
+      <c r="X17" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y17" s="41"/>
@@ -4188,7 +4268,7 @@
       <c r="E18" s="30">
         <v>17.79</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="69" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="32"/>
@@ -4238,10 +4318,10 @@
       <c r="T18" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="U18" s="30">
+      <c r="U18" s="57">
         <v>1934476.0</v>
       </c>
-      <c r="V18" s="40">
+      <c r="V18" s="58">
         <v>75600.31</v>
       </c>
       <c r="W18" s="30" t="s">
@@ -4350,19 +4430,19 @@
       <c r="S19" s="41">
         <v>-20.18</v>
       </c>
-      <c r="T19" s="51" t="s">
+      <c r="T19" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="49">
         <v>1934479.0</v>
       </c>
-      <c r="V19" s="49">
+      <c r="V19" s="50">
         <v>19509.96</v>
       </c>
       <c r="W19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y19" s="41"/>
@@ -4465,23 +4545,23 @@
       <c r="S20" s="41">
         <v>-8.2</v>
       </c>
-      <c r="T20" s="51" t="s">
+      <c r="T20" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="41">
+      <c r="U20" s="49">
         <v>1934481.0</v>
       </c>
-      <c r="V20" s="49">
+      <c r="V20" s="50">
         <v>26925.56</v>
       </c>
       <c r="W20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X20" s="50" t="s">
+      <c r="X20" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y20" s="41"/>
-      <c r="Z20" s="49"/>
+      <c r="Z20" s="53"/>
       <c r="AA20" s="41"/>
       <c r="AB20" s="41"/>
       <c r="AC20" s="41" t="s">
@@ -4493,7 +4573,7 @@
       <c r="AE20" s="41">
         <v>64.347</v>
       </c>
-      <c r="AF20" s="49">
+      <c r="AF20" s="53">
         <v>1217.54</v>
       </c>
       <c r="AG20" s="48"/>
@@ -4580,13 +4660,13 @@
       <c r="S21" s="30">
         <v>-0.02</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="T21" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="30">
+      <c r="U21" s="57">
         <v>1934482.0</v>
       </c>
-      <c r="V21" s="40">
+      <c r="V21" s="58">
         <v>50170.21</v>
       </c>
       <c r="W21" s="30" t="s">
@@ -4695,25 +4775,25 @@
       <c r="S22" s="30">
         <v>-6.01</v>
       </c>
-      <c r="T22" s="30" t="s">
+      <c r="T22" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="57">
         <v>1934483.0</v>
       </c>
-      <c r="V22" s="40">
+      <c r="V22" s="58">
         <v>56763.54</v>
       </c>
       <c r="W22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="X22" s="62">
+      <c r="X22" s="66">
         <v>1957090.0</v>
       </c>
-      <c r="Y22" s="63">
+      <c r="Y22" s="67">
         <v>14.725</v>
       </c>
-      <c r="Z22" s="64">
+      <c r="Z22" s="68">
         <v>1168.171</v>
       </c>
       <c r="AA22" s="30"/>
@@ -4767,7 +4847,7 @@
       <c r="E23" s="41">
         <v>14.92</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="70" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="44"/>
@@ -4814,25 +4894,25 @@
       <c r="S23" s="41">
         <v>4.28</v>
       </c>
-      <c r="T23" s="41" t="s">
+      <c r="T23" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="41">
+      <c r="U23" s="49">
         <v>1934535.0</v>
       </c>
-      <c r="V23" s="65">
+      <c r="V23" s="71">
         <v>13720.47</v>
       </c>
       <c r="W23" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="X23" s="60">
+      <c r="X23" s="64">
         <v>1957091.0</v>
       </c>
-      <c r="Y23" s="61">
+      <c r="Y23" s="65">
         <v>14.23</v>
       </c>
-      <c r="Z23" s="59">
+      <c r="Z23" s="63">
         <v>1134.161</v>
       </c>
       <c r="AA23" s="41"/>
@@ -4850,7 +4930,7 @@
         <v>408.249</v>
       </c>
       <c r="AG23" s="48"/>
-      <c r="AH23" s="54" t="s">
+      <c r="AH23" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AI23" s="48">
@@ -4935,25 +5015,25 @@
       <c r="S24" s="41">
         <v>8.26</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="T24" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="41">
+      <c r="U24" s="49">
         <v>1934527.0</v>
       </c>
-      <c r="V24" s="65">
+      <c r="V24" s="71">
         <v>10670.33</v>
       </c>
       <c r="W24" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X24" s="60">
+      <c r="X24" s="64">
         <v>1957093.0</v>
       </c>
-      <c r="Y24" s="61">
+      <c r="Y24" s="65">
         <v>22.308</v>
       </c>
-      <c r="Z24" s="59">
+      <c r="Z24" s="63">
         <v>1689.691</v>
       </c>
       <c r="AA24" s="41"/>
@@ -4967,11 +5047,11 @@
       <c r="AE24" s="41">
         <v>21.568</v>
       </c>
-      <c r="AF24" s="49">
+      <c r="AF24" s="53">
         <v>1636.08</v>
       </c>
       <c r="AG24" s="48"/>
-      <c r="AH24" s="54" t="s">
+      <c r="AH24" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AI24" s="48">
@@ -5058,13 +5138,13 @@
       <c r="S25" s="30">
         <v>0.25</v>
       </c>
-      <c r="T25" s="30" t="s">
+      <c r="T25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="30">
+      <c r="U25" s="57">
         <v>1946570.0</v>
       </c>
-      <c r="V25" s="66">
+      <c r="V25" s="72">
         <v>4.7</v>
       </c>
       <c r="W25" s="30" t="s">
@@ -5175,23 +5255,23 @@
       <c r="S26" s="41">
         <v>19.14</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="T26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="41">
+      <c r="U26" s="49">
         <v>1946571.0</v>
       </c>
-      <c r="V26" s="65">
+      <c r="V26" s="71">
         <v>3054.34</v>
       </c>
       <c r="W26" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X26" s="50" t="s">
+      <c r="X26" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y26" s="41"/>
-      <c r="Z26" s="49"/>
+      <c r="Z26" s="53"/>
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
       <c r="AC26" s="41" t="s">
@@ -5203,7 +5283,7 @@
       <c r="AE26" s="41">
         <v>24.533</v>
       </c>
-      <c r="AF26" s="49">
+      <c r="AF26" s="53">
         <v>611.13</v>
       </c>
       <c r="AG26" s="48"/>
@@ -5292,13 +5372,13 @@
       <c r="S27" s="41">
         <v>5.94</v>
       </c>
-      <c r="T27" s="41" t="s">
+      <c r="T27" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U27" s="41">
+      <c r="U27" s="49">
         <v>1946572.0</v>
       </c>
-      <c r="V27" s="65">
+      <c r="V27" s="71">
         <v>502233.0</v>
       </c>
       <c r="W27" s="41" t="s">
@@ -5308,9 +5388,9 @@
         <v>65</v>
       </c>
       <c r="Y27" s="41"/>
-      <c r="Z27" s="49"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="41"/>
-      <c r="AB27" s="54" t="s">
+      <c r="AB27" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AC27" s="41" t="s">
@@ -5322,7 +5402,7 @@
       <c r="AE27" s="41">
         <v>37.609</v>
       </c>
-      <c r="AF27" s="49">
+      <c r="AF27" s="53">
         <v>10310.91</v>
       </c>
       <c r="AG27" s="48"/>
@@ -5362,7 +5442,7 @@
       <c r="E28" s="41">
         <v>17.77</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="70" t="s">
         <v>82</v>
       </c>
       <c r="G28" s="44"/>
@@ -5409,13 +5489,13 @@
       <c r="S28" s="41">
         <v>-3.92</v>
       </c>
-      <c r="T28" s="41" t="s">
+      <c r="T28" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="56">
+      <c r="U28" s="60">
         <v>1956120.0</v>
       </c>
-      <c r="V28" s="57">
+      <c r="V28" s="61">
         <v>23554.54</v>
       </c>
       <c r="W28" s="41" t="s">
@@ -5424,22 +5504,22 @@
       <c r="X28" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="67"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="73"/>
       <c r="AA28" s="41"/>
-      <c r="AB28" s="54" t="s">
+      <c r="AB28" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AC28" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AD28" s="50">
+      <c r="AD28" s="51">
         <v>1956150.0</v>
       </c>
-      <c r="AE28" s="50">
+      <c r="AE28" s="51">
         <v>15.315</v>
       </c>
-      <c r="AF28" s="67">
+      <c r="AF28" s="73">
         <v>4018.02</v>
       </c>
       <c r="AG28" s="48"/>
@@ -5526,25 +5606,25 @@
       <c r="S29" s="41">
         <v>7.53</v>
       </c>
-      <c r="T29" s="41" t="s">
+      <c r="T29" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="41">
+      <c r="U29" s="49">
         <v>1946574.0</v>
       </c>
-      <c r="V29" s="65">
+      <c r="V29" s="71">
         <v>18574.07</v>
       </c>
       <c r="W29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X29" s="60">
+      <c r="X29" s="64">
         <v>1957098.0</v>
       </c>
-      <c r="Y29" s="61">
+      <c r="Y29" s="65">
         <v>18.846</v>
       </c>
-      <c r="Z29" s="59">
+      <c r="Z29" s="63">
         <v>1451.596</v>
       </c>
       <c r="AA29" s="41"/>
@@ -5558,11 +5638,11 @@
       <c r="AE29" s="41">
         <v>1.815</v>
       </c>
-      <c r="AF29" s="49">
+      <c r="AF29" s="53">
         <v>547.89</v>
       </c>
       <c r="AG29" s="48"/>
-      <c r="AH29" s="54" t="s">
+      <c r="AH29" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AI29" s="48">
@@ -5649,23 +5729,23 @@
       <c r="S30" s="41">
         <v>-5.1</v>
       </c>
-      <c r="T30" s="41" t="s">
+      <c r="T30" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="41">
+      <c r="U30" s="49">
         <v>1946575.0</v>
       </c>
-      <c r="V30" s="65">
+      <c r="V30" s="71">
         <v>61936.21</v>
       </c>
       <c r="W30" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X30" s="50" t="s">
+      <c r="X30" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y30" s="41"/>
-      <c r="Z30" s="49"/>
+      <c r="Z30" s="53"/>
       <c r="AA30" s="41"/>
       <c r="AB30" s="41"/>
       <c r="AC30" s="41" t="s">
@@ -5677,7 +5757,7 @@
       <c r="AE30" s="41">
         <v>36.738</v>
       </c>
-      <c r="AF30" s="49">
+      <c r="AF30" s="53">
         <v>820.04</v>
       </c>
       <c r="AG30" s="48"/>
@@ -5717,7 +5797,7 @@
       <c r="E31" s="41">
         <v>17.16</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="70" t="s">
         <v>82</v>
       </c>
       <c r="G31" s="44"/>
@@ -5764,13 +5844,13 @@
       <c r="S31" s="41">
         <v>-11.39</v>
       </c>
-      <c r="T31" s="51" t="s">
+      <c r="T31" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U31" s="56">
+      <c r="U31" s="60">
         <v>1956115.0</v>
       </c>
-      <c r="V31" s="57">
+      <c r="V31" s="61">
         <v>35350.45</v>
       </c>
       <c r="W31" s="41" t="s">
@@ -5779,22 +5859,22 @@
       <c r="X31" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="67"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="73"/>
       <c r="AA31" s="41"/>
-      <c r="AB31" s="54" t="s">
+      <c r="AB31" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AC31" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AD31" s="50">
+      <c r="AD31" s="51">
         <v>1956147.0</v>
       </c>
-      <c r="AE31" s="50">
+      <c r="AE31" s="51">
         <v>25.708</v>
       </c>
-      <c r="AF31" s="67">
+      <c r="AF31" s="73">
         <v>6742.903</v>
       </c>
       <c r="AG31" s="48"/>
@@ -5832,7 +5912,7 @@
         <v>49</v>
       </c>
       <c r="E32" s="41">
-        <v>15.51</v>
+        <v>15.1</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>102</v>
@@ -5846,7 +5926,7 @@
       </c>
       <c r="I32" s="45">
         <f t="shared" si="1"/>
-        <v>13.21</v>
+        <v>12.8</v>
       </c>
       <c r="J32" s="41">
         <v>3950.0</v>
@@ -5883,54 +5963,60 @@
       <c r="S32" s="41">
         <v>25.45</v>
       </c>
-      <c r="T32" s="41" t="s">
+      <c r="T32" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="41">
+      <c r="U32" s="49">
         <v>1946577.0</v>
       </c>
-      <c r="V32" s="65">
+      <c r="V32" s="71">
         <v>7959.94</v>
       </c>
       <c r="W32" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X32" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="49"/>
+      <c r="X32" s="51">
+        <v>2020011.0</v>
+      </c>
+      <c r="Y32" s="41">
+        <v>12.211</v>
+      </c>
+      <c r="Z32" s="53">
+        <v>995.291</v>
+      </c>
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
       <c r="AC32" s="41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AD32" s="41">
-        <v>1946607.0</v>
+        <v>2020012.0</v>
       </c>
       <c r="AE32" s="41">
-        <v>59.057</v>
-      </c>
-      <c r="AF32" s="49">
-        <v>1203.34</v>
+        <v>1.177</v>
+      </c>
+      <c r="AF32" s="53">
+        <v>371.213</v>
       </c>
       <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
+      <c r="AH32" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="AI32" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="48">
         <f>(AI32*100000000-((L32*R_sun)/(K32*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J32))-1))))/(((L32*R_sun)/(K32*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
-        <v>0.00118207441</v>
+        <v>0.00340067477</v>
       </c>
       <c r="AK32" s="48">
         <f>AJ32*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
-        <v>7231568.466</v>
+        <v>20804284.6</v>
       </c>
       <c r="AL32" s="48">
         <f t="shared" si="7"/>
-        <v>8307492.847</v>
+        <v>13085963.3</v>
       </c>
       <c r="AM32" s="41" t="str">
         <f t="shared" si="8"/>
@@ -5938,118 +6024,118 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="75">
         <v>18.89</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="76">
         <f>VLOOKUP(C33,'Lookup Tables'!$D$2:$F$4,MATCH(D33,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-8</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="76">
         <f t="shared" si="1"/>
         <v>10.89</v>
       </c>
-      <c r="J33" s="69">
+      <c r="J33" s="75">
         <v>3194.0</v>
       </c>
-      <c r="K33" s="69">
+      <c r="K33" s="75">
         <v>47.34</v>
       </c>
-      <c r="L33" s="71">
+      <c r="L33" s="77">
         <v>0.33</v>
       </c>
-      <c r="M33" s="72">
+      <c r="M33" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="72">
+      <c r="N33" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="72">
+      <c r="O33" s="78">
         <f t="shared" si="10"/>
         <v>0.0000000001495414971</v>
       </c>
-      <c r="P33" s="72">
+      <c r="P33" s="78">
         <f t="shared" si="5"/>
         <v>0.0000000001495414971</v>
       </c>
-      <c r="Q33" s="72">
+      <c r="Q33" s="78">
         <f>AL33*((L33*R_sun)/(K33*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R33" s="69">
+      <c r="R33" s="75">
         <v>-32.04</v>
       </c>
-      <c r="S33" s="69">
+      <c r="S33" s="75">
         <v>-22.49</v>
       </c>
-      <c r="T33" s="69" t="s">
+      <c r="T33" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="69">
+      <c r="U33" s="79">
         <v>1946578.0</v>
       </c>
-      <c r="V33" s="73">
+      <c r="V33" s="80">
         <v>67438.16</v>
       </c>
-      <c r="W33" s="69" t="s">
+      <c r="W33" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="X33" s="74">
+      <c r="X33" s="81">
         <v>1957099.0</v>
       </c>
-      <c r="Y33" s="75">
+      <c r="Y33" s="82">
         <v>61.834</v>
       </c>
-      <c r="Z33" s="76">
+      <c r="Z33" s="83">
         <v>4408.361</v>
       </c>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69" t="s">
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="AD33" s="69">
+      <c r="AD33" s="75">
         <v>1946631.0</v>
       </c>
-      <c r="AE33" s="69">
+      <c r="AE33" s="75">
         <v>5.953</v>
       </c>
-      <c r="AF33" s="77">
+      <c r="AF33" s="84">
         <v>1645.29</v>
       </c>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72">
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ33" s="72">
+      <c r="AJ33" s="78">
         <f>(AI33*100000000-((L33*R_sun)/(K33*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J33))-1))))/(((L33*R_sun)/(K33*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.1020852742</v>
       </c>
-      <c r="AK33" s="72">
+      <c r="AK33" s="78">
         <f>AJ33*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>624526378.2</v>
       </c>
-      <c r="AL33" s="72">
+      <c r="AL33" s="78">
         <f t="shared" si="7"/>
         <v>56504994.66</v>
       </c>
@@ -6075,7 +6161,7 @@
       <c r="F34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="62" t="s">
         <v>108</v>
       </c>
       <c r="H34" s="45">
@@ -6121,25 +6207,25 @@
       <c r="S34" s="41">
         <v>5.17</v>
       </c>
-      <c r="T34" s="41" t="s">
+      <c r="T34" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="41">
+      <c r="U34" s="49">
         <v>1946579.0</v>
       </c>
-      <c r="V34" s="65">
+      <c r="V34" s="71">
         <v>21325.87</v>
       </c>
       <c r="W34" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X34" s="60">
+      <c r="X34" s="64">
         <v>1957101.0</v>
       </c>
-      <c r="Y34" s="61">
+      <c r="Y34" s="65">
         <v>21.402</v>
       </c>
-      <c r="Z34" s="59">
+      <c r="Z34" s="63">
         <v>1627.329</v>
       </c>
       <c r="AA34" s="41"/>
@@ -6153,11 +6239,11 @@
       <c r="AE34" s="41">
         <v>95.7812</v>
       </c>
-      <c r="AF34" s="49">
+      <c r="AF34" s="53">
         <v>1802.533</v>
       </c>
       <c r="AG34" s="48"/>
-      <c r="AH34" s="54" t="s">
+      <c r="AH34" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AI34" s="48">
@@ -6189,7 +6275,7 @@
       <c r="C35" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="70" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="41">
@@ -6198,7 +6284,7 @@
       <c r="F35" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="62" t="s">
         <v>110</v>
       </c>
       <c r="H35" s="45">
@@ -6244,23 +6330,23 @@
       <c r="S35" s="41">
         <v>0.54</v>
       </c>
-      <c r="T35" s="51" t="s">
+      <c r="T35" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U35" s="51">
+      <c r="U35" s="52">
         <v>1965104.0</v>
       </c>
-      <c r="V35" s="78">
+      <c r="V35" s="85">
         <v>185.57</v>
       </c>
       <c r="W35" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X35" s="50" t="s">
+      <c r="X35" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y35" s="41"/>
-      <c r="Z35" s="49"/>
+      <c r="Z35" s="53"/>
       <c r="AA35" s="41"/>
       <c r="AB35" s="41"/>
       <c r="AC35" s="41" t="s">
@@ -6272,7 +6358,7 @@
       <c r="AE35" s="41">
         <v>36.454</v>
       </c>
-      <c r="AF35" s="49">
+      <c r="AF35" s="53">
         <v>803.228</v>
       </c>
       <c r="AG35" s="48"/>
@@ -6299,114 +6385,114 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69" t="s">
+      <c r="B36" s="75"/>
+      <c r="C36" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="75">
         <v>16.08</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="76">
         <f>VLOOKUP(C36,'Lookup Tables'!$D$2:$F$4,MATCH(D36,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I36" s="70">
+      <c r="I36" s="76">
         <f t="shared" si="1"/>
         <v>13.78</v>
       </c>
-      <c r="J36" s="69">
+      <c r="J36" s="75">
         <v>3422.0</v>
       </c>
-      <c r="K36" s="69">
+      <c r="K36" s="75">
         <v>30.03</v>
       </c>
-      <c r="L36" s="71">
+      <c r="L36" s="77">
         <v>0.37</v>
       </c>
-      <c r="M36" s="72">
+      <c r="M36" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="72">
+      <c r="N36" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O36" s="72">
+      <c r="O36" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P36" s="72">
+      <c r="P36" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="72">
+      <c r="Q36" s="78">
         <f>AL36*((L36*R_sun)/(K36*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R36" s="69">
+      <c r="R36" s="75">
         <v>-35.81</v>
       </c>
-      <c r="S36" s="69">
+      <c r="S36" s="75">
         <v>-21.81</v>
       </c>
-      <c r="T36" s="69" t="s">
+      <c r="T36" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="69">
+      <c r="U36" s="79">
         <v>1946581.0</v>
       </c>
-      <c r="V36" s="73">
+      <c r="V36" s="80">
         <v>4708.83</v>
       </c>
-      <c r="W36" s="69" t="s">
+      <c r="W36" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X36" s="79" t="s">
+      <c r="X36" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69" t="s">
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AD36" s="69">
+      <c r="AD36" s="75">
         <v>1946611.0</v>
       </c>
-      <c r="AE36" s="69">
+      <c r="AE36" s="75">
         <v>36.455</v>
       </c>
-      <c r="AF36" s="77">
+      <c r="AF36" s="84">
         <v>815.17</v>
       </c>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72">
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ36" s="72">
+      <c r="AJ36" s="78">
         <f>(AI36*100000000-((L36*R_sun)/(K36*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J36))-1))))/(((L36*R_sun)/(K36*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.001505927819</v>
       </c>
-      <c r="AK36" s="72">
+      <c r="AK36" s="78">
         <f>AJ36*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>9212804.234</v>
       </c>
-      <c r="AL36" s="72">
+      <c r="AL36" s="78">
         <f t="shared" si="7"/>
         <v>9219099.291</v>
       </c>
@@ -6429,7 +6515,7 @@
       <c r="E37" s="41">
         <v>17.17</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="70" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="41" t="s">
@@ -6478,13 +6564,13 @@
       <c r="S37" s="41">
         <v>-8.67</v>
       </c>
-      <c r="T37" s="41" t="s">
+      <c r="T37" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="41">
+      <c r="U37" s="49">
         <v>1946582.0</v>
       </c>
-      <c r="V37" s="65">
+      <c r="V37" s="71">
         <v>328779.92</v>
       </c>
       <c r="W37" s="41" t="s">
@@ -6494,9 +6580,9 @@
         <v>65</v>
       </c>
       <c r="Y37" s="41"/>
-      <c r="Z37" s="49"/>
+      <c r="Z37" s="53"/>
       <c r="AA37" s="41"/>
-      <c r="AB37" s="54" t="s">
+      <c r="AB37" s="56" t="s">
         <v>71</v>
       </c>
       <c r="AC37" s="41" t="s">
@@ -6508,7 +6594,7 @@
       <c r="AE37" s="41">
         <v>25.47</v>
       </c>
-      <c r="AF37" s="49">
+      <c r="AF37" s="53">
         <v>6957.9</v>
       </c>
       <c r="AG37" s="48"/>
@@ -6597,23 +6683,23 @@
       <c r="S38" s="41">
         <v>-11.33</v>
       </c>
-      <c r="T38" s="41" t="s">
+      <c r="T38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="41">
+      <c r="U38" s="49">
         <v>1946583.0</v>
       </c>
-      <c r="V38" s="65">
+      <c r="V38" s="71">
         <v>6743.89</v>
       </c>
       <c r="W38" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X38" s="50" t="s">
+      <c r="X38" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y38" s="41"/>
-      <c r="Z38" s="49"/>
+      <c r="Z38" s="53"/>
       <c r="AA38" s="41"/>
       <c r="AB38" s="41"/>
       <c r="AC38" s="41" t="s">
@@ -6625,7 +6711,7 @@
       <c r="AE38" s="41">
         <v>50.864</v>
       </c>
-      <c r="AF38" s="49">
+      <c r="AF38" s="53">
         <v>1062.17</v>
       </c>
       <c r="AG38" s="48"/>
@@ -6652,118 +6738,118 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69" t="s">
+      <c r="B39" s="75"/>
+      <c r="C39" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="75">
         <v>15.26</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="80" t="s">
+      <c r="G39" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="76">
         <f>VLOOKUP(C39,'Lookup Tables'!$D$2:$F$4,MATCH(D39,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I39" s="70">
+      <c r="I39" s="76">
         <f t="shared" si="1"/>
         <v>12.96</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="75">
         <v>3770.0</v>
       </c>
-      <c r="K39" s="69">
+      <c r="K39" s="75">
         <v>46.09</v>
       </c>
-      <c r="L39" s="71">
+      <c r="L39" s="77">
         <v>0.53</v>
       </c>
-      <c r="M39" s="72">
+      <c r="M39" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="72">
+      <c r="N39" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O39" s="72">
+      <c r="O39" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P39" s="72">
+      <c r="P39" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="72">
+      <c r="Q39" s="78">
         <f>AL39*((L39*R_sun)/(K39*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R39" s="69">
+      <c r="R39" s="75">
         <v>1.94</v>
       </c>
-      <c r="S39" s="69">
+      <c r="S39" s="75">
         <v>5.69</v>
       </c>
-      <c r="T39" s="69" t="s">
+      <c r="T39" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="69">
+      <c r="U39" s="79">
         <v>1946584.0</v>
       </c>
-      <c r="V39" s="73">
+      <c r="V39" s="80">
         <v>15882.08</v>
       </c>
-      <c r="W39" s="69" t="s">
+      <c r="W39" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X39" s="74">
+      <c r="X39" s="81">
         <v>1957103.0</v>
       </c>
-      <c r="Y39" s="75">
+      <c r="Y39" s="82">
         <v>16.291</v>
       </c>
-      <c r="Z39" s="76">
+      <c r="Z39" s="83">
         <v>1275.874</v>
       </c>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69" t="s">
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AD39" s="69">
+      <c r="AD39" s="75">
         <v>1980975.0</v>
       </c>
-      <c r="AE39" s="69">
+      <c r="AE39" s="75">
         <v>73.181</v>
       </c>
-      <c r="AF39" s="77">
+      <c r="AF39" s="84">
         <v>1420.883</v>
       </c>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72">
+      <c r="AG39" s="78"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="72">
+      <c r="AJ39" s="78">
         <f>(AI39*100000000-((L39*R_sun)/(K39*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J39))-1))))/(((L39*R_sun)/(K39*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.003324527974</v>
       </c>
-      <c r="AK39" s="72">
+      <c r="AK39" s="78">
         <f>AJ39*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>20338441.87</v>
       </c>
-      <c r="AL39" s="72">
+      <c r="AL39" s="78">
         <f t="shared" si="7"/>
         <v>12959152.53</v>
       </c>
@@ -6773,114 +6859,114 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="69">
+      <c r="E40" s="75">
         <v>19.69</v>
       </c>
-      <c r="F40" s="69">
+      <c r="F40" s="75">
         <v>1.239</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="70">
+      <c r="H40" s="76">
         <f>VLOOKUP(C40,'Lookup Tables'!$D$2:$F$4,MATCH(D40,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I40" s="70">
+      <c r="I40" s="76">
         <f t="shared" si="1"/>
         <v>17.39</v>
       </c>
-      <c r="J40" s="69">
+      <c r="J40" s="75">
         <v>3185.0</v>
       </c>
-      <c r="K40" s="69">
+      <c r="K40" s="75">
         <v>64.92</v>
       </c>
-      <c r="L40" s="71">
+      <c r="L40" s="77">
         <v>0.28</v>
       </c>
-      <c r="M40" s="72">
+      <c r="M40" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="72">
+      <c r="N40" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O40" s="72">
+      <c r="O40" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P40" s="72">
+      <c r="P40" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="72">
+      <c r="Q40" s="78">
         <f>AL40*((L40*R_sun)/(K40*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R40" s="69">
+      <c r="R40" s="75">
         <v>-4.1</v>
       </c>
-      <c r="S40" s="69">
+      <c r="S40" s="75">
         <v>14.76</v>
       </c>
-      <c r="T40" s="69" t="s">
+      <c r="T40" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="69">
+      <c r="U40" s="79">
         <v>1946585.0</v>
       </c>
-      <c r="V40" s="73">
+      <c r="V40" s="80">
         <v>169.48</v>
       </c>
-      <c r="W40" s="69" t="s">
+      <c r="W40" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X40" s="79" t="s">
+      <c r="X40" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="69"/>
-      <c r="AC40" s="81" t="s">
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="84"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AD40" s="81">
+      <c r="AD40" s="88">
         <v>1946615.0</v>
       </c>
-      <c r="AE40" s="81">
+      <c r="AE40" s="88">
         <v>1.723</v>
       </c>
-      <c r="AF40" s="82">
+      <c r="AF40" s="89">
         <v>224.03</v>
       </c>
-      <c r="AG40" s="83"/>
-      <c r="AH40" s="83"/>
-      <c r="AI40" s="83">
+      <c r="AG40" s="90"/>
+      <c r="AH40" s="90"/>
+      <c r="AI40" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="83">
+      <c r="AJ40" s="90">
         <f>(AI40*100000000-((L40*R_sun)/(K40*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J40))-1))))/(((L40*R_sun)/(K40*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.0003396667724</v>
       </c>
-      <c r="AK40" s="83">
+      <c r="AK40" s="90">
         <f>AJ40*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>2077977.072</v>
       </c>
-      <c r="AL40" s="83">
+      <c r="AL40" s="90">
         <f t="shared" si="7"/>
         <v>4859432.155</v>
       </c>
@@ -6952,25 +7038,25 @@
       <c r="S41" s="41">
         <v>12.38</v>
       </c>
-      <c r="T41" s="41" t="s">
+      <c r="T41" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="U41" s="41">
+      <c r="U41" s="49">
         <v>1946599.0</v>
       </c>
-      <c r="V41" s="65">
+      <c r="V41" s="71">
         <v>147.32</v>
       </c>
       <c r="W41" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X41" s="60">
+      <c r="X41" s="64">
         <v>1957105.0</v>
       </c>
-      <c r="Y41" s="61">
+      <c r="Y41" s="65">
         <v>28.532</v>
       </c>
-      <c r="Z41" s="59">
+      <c r="Z41" s="63">
         <v>2117.712</v>
       </c>
       <c r="AA41" s="41"/>
@@ -6984,7 +7070,7 @@
       <c r="AE41" s="41">
         <v>2.74</v>
       </c>
-      <c r="AF41" s="49">
+      <c r="AF41" s="53">
         <v>791.52</v>
       </c>
       <c r="AG41" s="48"/>
@@ -7073,23 +7159,23 @@
       <c r="S42" s="41">
         <v>-0.6</v>
       </c>
-      <c r="T42" s="41" t="s">
+      <c r="T42" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="41">
+      <c r="U42" s="49">
         <v>1946587.0</v>
       </c>
-      <c r="V42" s="65">
+      <c r="V42" s="71">
         <v>7672.02</v>
       </c>
       <c r="W42" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X42" s="50" t="s">
+      <c r="X42" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y42" s="41"/>
-      <c r="Z42" s="49"/>
+      <c r="Z42" s="53"/>
       <c r="AA42" s="41"/>
       <c r="AB42" s="41"/>
       <c r="AC42" s="41" t="s">
@@ -7101,7 +7187,7 @@
       <c r="AE42" s="41">
         <v>57.079</v>
       </c>
-      <c r="AF42" s="49">
+      <c r="AF42" s="53">
         <v>1169.3</v>
       </c>
       <c r="AG42" s="48"/>
@@ -7128,114 +7214,114 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="75">
         <v>17.18</v>
       </c>
-      <c r="F43" s="69">
+      <c r="F43" s="75">
         <v>0.09</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="70">
+      <c r="H43" s="76">
         <f>VLOOKUP(C43,'Lookup Tables'!$D$2:$F$4,MATCH(D43,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="76">
         <f t="shared" si="1"/>
         <v>14.88</v>
       </c>
-      <c r="J43" s="69">
+      <c r="J43" s="75">
         <v>3403.0</v>
       </c>
-      <c r="K43" s="69">
+      <c r="K43" s="75">
         <v>62.12</v>
       </c>
-      <c r="L43" s="71">
+      <c r="L43" s="77">
         <v>0.33</v>
       </c>
-      <c r="M43" s="72">
+      <c r="M43" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N43" s="72">
+      <c r="N43" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O43" s="72">
+      <c r="O43" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P43" s="72">
+      <c r="P43" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="72">
+      <c r="Q43" s="78">
         <f>AL43*((L43*R_sun)/(K43*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R43" s="69">
+      <c r="R43" s="75">
         <v>-72.4</v>
       </c>
-      <c r="S43" s="69">
+      <c r="S43" s="75">
         <v>-0.34</v>
       </c>
-      <c r="T43" s="69" t="s">
+      <c r="T43" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="69">
+      <c r="U43" s="79">
         <v>1946588.0</v>
       </c>
-      <c r="V43" s="73">
+      <c r="V43" s="80">
         <v>1709.72</v>
       </c>
-      <c r="W43" s="69" t="s">
+      <c r="W43" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X43" s="79" t="s">
+      <c r="X43" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="69"/>
-      <c r="AB43" s="69"/>
-      <c r="AC43" s="81" t="s">
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="75"/>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AD43" s="81">
+      <c r="AD43" s="88">
         <v>1946618.0</v>
       </c>
-      <c r="AE43" s="81">
+      <c r="AE43" s="88">
         <v>14.391</v>
       </c>
-      <c r="AF43" s="82">
+      <c r="AF43" s="89">
         <v>438.3</v>
       </c>
-      <c r="AG43" s="83"/>
-      <c r="AH43" s="83"/>
-      <c r="AI43" s="83">
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="90"/>
+      <c r="AI43" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ43" s="83">
+      <c r="AJ43" s="90">
         <f>(AI43*100000000-((L43*R_sun)/(K43*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J43))-1))))/(((L43*R_sun)/(K43*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.00373669598</v>
       </c>
-      <c r="AK43" s="83">
+      <c r="AK43" s="90">
         <f>AJ43*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>22859959.24</v>
       </c>
-      <c r="AL43" s="83">
+      <c r="AL43" s="90">
         <f t="shared" si="7"/>
         <v>13627068.66</v>
       </c>
@@ -7245,114 +7331,114 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="75">
         <v>17.78</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="75">
         <v>-0.206</v>
       </c>
-      <c r="G44" s="69" t="s">
+      <c r="G44" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="76">
         <f>VLOOKUP(C44,'Lookup Tables'!$D$2:$F$4,MATCH(D44,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I44" s="76">
         <f t="shared" si="1"/>
         <v>15.48</v>
       </c>
-      <c r="J44" s="69">
+      <c r="J44" s="75">
         <v>3390.0</v>
       </c>
-      <c r="K44" s="69">
+      <c r="K44" s="75">
         <v>82.96</v>
       </c>
-      <c r="L44" s="71">
+      <c r="L44" s="77">
         <v>0.31</v>
       </c>
-      <c r="M44" s="72">
+      <c r="M44" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N44" s="72">
+      <c r="N44" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O44" s="72">
+      <c r="O44" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P44" s="72">
+      <c r="P44" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="72">
+      <c r="Q44" s="78">
         <f>AL44*((L44*R_sun)/(K44*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R44" s="69">
+      <c r="R44" s="75">
         <v>-31.02</v>
       </c>
-      <c r="S44" s="69">
+      <c r="S44" s="75">
         <v>-5.27</v>
       </c>
-      <c r="T44" s="69" t="s">
+      <c r="T44" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="84">
+      <c r="U44" s="91">
         <v>1956112.0</v>
       </c>
-      <c r="V44" s="85">
+      <c r="V44" s="92">
         <v>123.67</v>
       </c>
-      <c r="W44" s="69" t="s">
+      <c r="W44" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X44" s="79" t="s">
+      <c r="X44" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="Y44" s="69"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="69"/>
-      <c r="AB44" s="69"/>
-      <c r="AC44" s="81" t="s">
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="84"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AD44" s="81">
+      <c r="AD44" s="88">
         <v>1956144.0</v>
       </c>
-      <c r="AE44" s="81">
+      <c r="AE44" s="88">
         <v>8.656</v>
       </c>
-      <c r="AF44" s="82">
+      <c r="AF44" s="89">
         <v>338.479</v>
       </c>
-      <c r="AG44" s="83"/>
-      <c r="AH44" s="83"/>
-      <c r="AI44" s="83">
+      <c r="AG44" s="90"/>
+      <c r="AH44" s="90"/>
+      <c r="AI44" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ44" s="83">
+      <c r="AJ44" s="90">
         <f>(AI44*100000000-((L44*R_sun)/(K44*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J44))-1))))/(((L44*R_sun)/(K44*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.004497422866</v>
       </c>
-      <c r="AK44" s="83">
+      <c r="AK44" s="90">
         <f>AJ44*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>27513852.86</v>
       </c>
-      <c r="AL44" s="83">
+      <c r="AL44" s="90">
         <f t="shared" si="7"/>
         <v>14757306.81</v>
       </c>
@@ -7362,118 +7448,118 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="69">
+      <c r="E45" s="75">
         <v>15.54</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="75">
         <v>0.12</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="76">
         <f>VLOOKUP(C45,'Lookup Tables'!$D$2:$F$4,MATCH(D45,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="76">
         <f t="shared" si="1"/>
         <v>13.24</v>
       </c>
-      <c r="J45" s="69">
+      <c r="J45" s="75">
         <v>3577.0</v>
       </c>
-      <c r="K45" s="69">
+      <c r="K45" s="75">
         <v>37.07</v>
       </c>
-      <c r="L45" s="71">
+      <c r="L45" s="77">
         <v>0.48</v>
       </c>
-      <c r="M45" s="72">
+      <c r="M45" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="72">
+      <c r="N45" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O45" s="72">
+      <c r="O45" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P45" s="72">
+      <c r="P45" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="72">
+      <c r="Q45" s="78">
         <f>AL45*((L45*R_sun)/(K45*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R45" s="69">
+      <c r="R45" s="75">
         <v>2.48355</v>
       </c>
-      <c r="S45" s="69">
+      <c r="S45" s="75">
         <v>-7.21</v>
       </c>
-      <c r="T45" s="69" t="s">
+      <c r="T45" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="69">
+      <c r="U45" s="79">
         <v>1957076.0</v>
       </c>
-      <c r="V45" s="73">
+      <c r="V45" s="80">
         <v>7743.008</v>
       </c>
-      <c r="W45" s="69" t="s">
+      <c r="W45" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="X45" s="74">
+      <c r="X45" s="81">
         <v>1957108.0</v>
       </c>
-      <c r="Y45" s="75">
+      <c r="Y45" s="82">
         <v>8.419</v>
       </c>
-      <c r="Z45" s="76">
+      <c r="Z45" s="83">
         <v>734.565</v>
       </c>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="69"/>
-      <c r="AC45" s="69" t="s">
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AD45" s="69">
+      <c r="AD45" s="75">
         <v>1980895.0</v>
       </c>
-      <c r="AE45" s="69">
+      <c r="AE45" s="75">
         <v>57.643</v>
       </c>
-      <c r="AF45" s="77">
+      <c r="AF45" s="84">
         <v>1159.288</v>
       </c>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="72"/>
-      <c r="AI45" s="72">
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="78"/>
+      <c r="AI45" s="78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ45" s="72">
+      <c r="AJ45" s="78">
         <f>(AI45*100000000-((L45*R_sun)/(K45*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J45))-1))))/(((L45*R_sun)/(K45*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.002117983875</v>
       </c>
-      <c r="AK45" s="72">
+      <c r="AK45" s="78">
         <f>AJ45*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>12957175.35</v>
       </c>
-      <c r="AL45" s="72">
+      <c r="AL45" s="78">
         <f t="shared" si="7"/>
         <v>10675284.17</v>
       </c>
@@ -7545,23 +7631,23 @@
       <c r="S46" s="41">
         <v>14.48</v>
       </c>
-      <c r="T46" s="41" t="s">
+      <c r="T46" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="41">
+      <c r="U46" s="49">
         <v>1946591.0</v>
       </c>
-      <c r="V46" s="65">
+      <c r="V46" s="71">
         <v>7743.01</v>
       </c>
       <c r="W46" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X46" s="50" t="s">
+      <c r="X46" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="60"/>
-      <c r="Z46" s="49"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="53"/>
       <c r="AA46" s="41"/>
       <c r="AB46" s="41"/>
       <c r="AC46" s="41" t="s">
@@ -7570,10 +7656,10 @@
       <c r="AD46" s="41">
         <v>1946621.0</v>
       </c>
-      <c r="AE46" s="60">
+      <c r="AE46" s="64">
         <v>57.644</v>
       </c>
-      <c r="AF46" s="49">
+      <c r="AF46" s="53">
         <v>1178.93</v>
       </c>
       <c r="AG46" s="48"/>
@@ -7662,23 +7748,23 @@
       <c r="S47" s="41">
         <v>-17.11</v>
       </c>
-      <c r="T47" s="41" t="s">
+      <c r="T47" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="41">
+      <c r="U47" s="49">
         <v>1946592.0</v>
       </c>
-      <c r="V47" s="65">
+      <c r="V47" s="71">
         <v>5982.89</v>
       </c>
       <c r="W47" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X47" s="50" t="s">
+      <c r="X47" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Y47" s="41"/>
-      <c r="Z47" s="49"/>
+      <c r="Z47" s="53"/>
       <c r="AA47" s="41"/>
       <c r="AB47" s="41"/>
       <c r="AC47" s="41" t="s">
@@ -7690,7 +7776,7 @@
       <c r="AE47" s="41">
         <v>45.496</v>
       </c>
-      <c r="AF47" s="49">
+      <c r="AF47" s="53">
         <v>970.12</v>
       </c>
       <c r="AG47" s="48"/>
@@ -7730,7 +7816,7 @@
       <c r="E48" s="30">
         <v>16.67</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="69" t="s">
         <v>82</v>
       </c>
       <c r="G48" s="32"/>
@@ -7777,13 +7863,13 @@
       <c r="S48" s="30">
         <v>-15.02</v>
       </c>
-      <c r="T48" s="30" t="s">
+      <c r="T48" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="30">
+      <c r="U48" s="57">
         <v>1946593.0</v>
       </c>
-      <c r="V48" s="66">
+      <c r="V48" s="72">
         <v>4334.24</v>
       </c>
       <c r="W48" s="30" t="s">
@@ -7848,7 +7934,7 @@
       <c r="F49" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="62" t="s">
         <v>135</v>
       </c>
       <c r="H49" s="45">
@@ -7894,25 +7980,25 @@
       <c r="S49" s="41">
         <v>18.87</v>
       </c>
-      <c r="T49" s="41" t="s">
+      <c r="T49" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="41">
+      <c r="U49" s="49">
         <v>1946594.0</v>
       </c>
-      <c r="V49" s="65">
+      <c r="V49" s="71">
         <v>20936.63</v>
       </c>
       <c r="W49" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X49" s="60">
+      <c r="X49" s="64">
         <v>1957110.0</v>
       </c>
-      <c r="Y49" s="61">
+      <c r="Y49" s="65">
         <v>21.031</v>
       </c>
-      <c r="Z49" s="59">
+      <c r="Z49" s="63">
         <v>1601.821</v>
       </c>
       <c r="AA49" s="41"/>
@@ -7926,13 +8012,13 @@
       <c r="AE49" s="41">
         <v>70.306</v>
       </c>
-      <c r="AF49" s="49">
+      <c r="AF49" s="53">
         <v>1005.767</v>
       </c>
-      <c r="AG49" s="54" t="s">
+      <c r="AG49" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="AH49" s="54">
+      <c r="AH49" s="56">
         <v>6.0E16</v>
       </c>
       <c r="AI49" s="48">
@@ -7970,7 +8056,7 @@
       <c r="E50" s="30">
         <v>18.29</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="69" t="s">
         <v>82</v>
       </c>
       <c r="G50" s="32"/>
@@ -8017,13 +8103,13 @@
       <c r="S50" s="30">
         <v>-5.43</v>
       </c>
-      <c r="T50" s="30" t="s">
+      <c r="T50" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="30">
+      <c r="U50" s="57">
         <v>1946595.0</v>
       </c>
-      <c r="V50" s="66">
+      <c r="V50" s="72">
         <v>117194.03</v>
       </c>
       <c r="W50" s="30" t="s">
@@ -8134,13 +8220,13 @@
       <c r="S51" s="30">
         <v>25.87</v>
       </c>
-      <c r="T51" s="30" t="s">
+      <c r="T51" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="30">
+      <c r="U51" s="57">
         <v>1946596.0</v>
       </c>
-      <c r="V51" s="66">
+      <c r="V51" s="72">
         <v>4026.37</v>
       </c>
       <c r="W51" s="30" t="s">
@@ -8251,25 +8337,25 @@
       <c r="S52" s="30">
         <v>12.93</v>
       </c>
-      <c r="T52" s="30" t="s">
+      <c r="T52" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="30">
+      <c r="U52" s="57">
         <v>1946597.0</v>
       </c>
-      <c r="V52" s="66">
+      <c r="V52" s="72">
         <v>15167.27</v>
       </c>
       <c r="W52" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="X52" s="62">
+      <c r="X52" s="66">
         <v>1957115.0</v>
       </c>
-      <c r="Y52" s="63">
+      <c r="Y52" s="67">
         <v>15.632</v>
       </c>
-      <c r="Z52" s="64">
+      <c r="Z52" s="68">
         <v>1230.522</v>
       </c>
       <c r="AA52" s="30"/>
@@ -8372,13 +8458,13 @@
       <c r="S53" s="30">
         <v>8.26</v>
       </c>
-      <c r="T53" s="30" t="s">
+      <c r="T53" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="30">
+      <c r="U53" s="57">
         <v>1946598.0</v>
       </c>
-      <c r="V53" s="66">
+      <c r="V53" s="72">
         <v>227.54</v>
       </c>
       <c r="W53" s="30" t="s">
@@ -8427,108 +8513,108 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87" t="s">
+      <c r="B54" s="94"/>
+      <c r="C54" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="87" t="s">
+      <c r="D54" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="88">
+      <c r="E54" s="95">
         <v>15.7198</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F54" s="94">
         <v>0.38</v>
       </c>
-      <c r="G54" s="87" t="s">
+      <c r="G54" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="89">
+      <c r="H54" s="96">
         <f>VLOOKUP(C54,'Lookup Tables'!$D$2:$F$4,MATCH(D54,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I54" s="90">
+      <c r="I54" s="97">
         <f t="shared" si="1"/>
         <v>13.4198</v>
       </c>
-      <c r="J54" s="87">
+      <c r="J54" s="94">
         <v>3951.0</v>
       </c>
-      <c r="K54" s="88">
+      <c r="K54" s="95">
         <v>44.0727</v>
       </c>
-      <c r="L54" s="88">
+      <c r="L54" s="95">
         <v>0.55</v>
       </c>
-      <c r="M54" s="91">
+      <c r="M54" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N54" s="91">
+      <c r="N54" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O54" s="91">
+      <c r="O54" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P54" s="91">
+      <c r="P54" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="91" t="str">
+      <c r="Q54" s="98" t="str">
         <f>AL54*((L54*R_sun)/(K54*cminpc))^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="R54" s="87">
+      <c r="R54" s="94">
         <v>30.48</v>
       </c>
-      <c r="S54" s="87">
+      <c r="S54" s="94">
         <v>-3.45</v>
       </c>
-      <c r="T54" s="87" t="s">
+      <c r="T54" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="87">
+      <c r="U54" s="99">
         <v>1946693.0</v>
       </c>
-      <c r="V54" s="92">
+      <c r="V54" s="100">
         <v>6560.101</v>
       </c>
-      <c r="W54" s="87" t="s">
+      <c r="W54" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="X54" s="93" t="s">
+      <c r="X54" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="Y54" s="87"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="87"/>
-      <c r="AB54" s="87"/>
-      <c r="AC54" s="87" t="s">
+      <c r="Y54" s="94"/>
+      <c r="Z54" s="102"/>
+      <c r="AA54" s="94"/>
+      <c r="AB54" s="94"/>
+      <c r="AC54" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="AD54" s="87"/>
-      <c r="AE54" s="87"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="91"/>
-      <c r="AH54" s="91"/>
-      <c r="AI54" s="91">
+      <c r="AD54" s="94"/>
+      <c r="AE54" s="94"/>
+      <c r="AF54" s="102"/>
+      <c r="AG54" s="98"/>
+      <c r="AH54" s="98"/>
+      <c r="AI54" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ54" s="91">
+      <c r="AJ54" s="98">
         <f>(AI54*100000000-((L54*R_sun)/(K54*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J54))-1))))/(((L54*R_sun)/(K54*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>-0.0005531752882</v>
       </c>
-      <c r="AK54" s="91">
+      <c r="AK54" s="98">
         <f>AJ54*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>-3384156.647</v>
       </c>
-      <c r="AL54" s="91" t="str">
+      <c r="AL54" s="98" t="str">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
@@ -8561,7 +8647,7 @@
         <f>VLOOKUP(C55,'Lookup Tables'!$D$2:$F$4,MATCH(D55,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I55" s="95">
+      <c r="I55" s="103">
         <f t="shared" si="1"/>
         <v>13.075</v>
       </c>
@@ -8600,13 +8686,13 @@
       <c r="S55" s="30">
         <v>17.99</v>
       </c>
-      <c r="T55" s="30" t="s">
+      <c r="T55" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="30">
+      <c r="U55" s="57">
         <v>1951485.0</v>
       </c>
-      <c r="V55" s="66">
+      <c r="V55" s="72">
         <v>1078.792</v>
       </c>
       <c r="W55" s="30" t="s">
@@ -8655,123 +8741,123 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87" t="s">
+      <c r="B56" s="94"/>
+      <c r="C56" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="87" t="s">
+      <c r="D56" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="88">
+      <c r="E56" s="95">
         <f>13.97+1.19</f>
         <v>15.16</v>
       </c>
-      <c r="F56" s="87" t="s">
+      <c r="F56" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="96" t="s">
+      <c r="G56" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="H56" s="89">
+      <c r="H56" s="96">
         <f>VLOOKUP(C56,'Lookup Tables'!$D$2:$F$4,MATCH(D56,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I56" s="90">
+      <c r="I56" s="97">
         <f t="shared" si="1"/>
         <v>12.86</v>
       </c>
-      <c r="J56" s="87">
+      <c r="J56" s="94">
         <v>3927.0</v>
       </c>
-      <c r="K56" s="88">
+      <c r="K56" s="95">
         <v>53.8027</v>
       </c>
-      <c r="L56" s="88">
+      <c r="L56" s="95">
         <v>0.61</v>
       </c>
-      <c r="M56" s="91">
+      <c r="M56" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N56" s="91">
+      <c r="N56" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O56" s="91">
+      <c r="O56" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P56" s="91">
+      <c r="P56" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="91">
+      <c r="Q56" s="98">
         <f>AL56*((L56*R_sun)/(K56*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R56" s="87">
+      <c r="R56" s="94">
         <v>50.77</v>
       </c>
-      <c r="S56" s="87">
+      <c r="S56" s="94">
         <v>18.09</v>
       </c>
-      <c r="T56" s="97" t="s">
+      <c r="T56" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="U56" s="97">
+      <c r="U56" s="105">
         <v>1956099.0</v>
       </c>
-      <c r="V56" s="98">
+      <c r="V56" s="106">
         <v>334.78</v>
       </c>
-      <c r="W56" s="87" t="s">
+      <c r="W56" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="X56" s="99">
+      <c r="X56" s="107">
         <v>1957116.0</v>
       </c>
-      <c r="Y56" s="100">
+      <c r="Y56" s="108">
         <v>17.734</v>
       </c>
-      <c r="Z56" s="101">
+      <c r="Z56" s="109">
         <v>1375.074</v>
       </c>
-      <c r="AA56" s="87"/>
-      <c r="AB56" s="87"/>
-      <c r="AC56" s="87" t="s">
+      <c r="AA56" s="94"/>
+      <c r="AB56" s="94"/>
+      <c r="AC56" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AD56" s="50">
+      <c r="AD56" s="51">
         <v>1981269.0</v>
       </c>
-      <c r="AE56" s="50">
+      <c r="AE56" s="51">
         <v>67.772</v>
       </c>
-      <c r="AF56" s="67">
+      <c r="AF56" s="73">
         <v>963.587</v>
       </c>
-      <c r="AG56" s="102" t="s">
+      <c r="AG56" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="AH56" s="102">
+      <c r="AH56" s="110">
         <v>6.0E16</v>
       </c>
-      <c r="AI56" s="91">
+      <c r="AI56" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ56" s="91">
+      <c r="AJ56" s="98">
         <f>(AI56*100000000-((L56*R_sun)/(K56*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J56))-1))))/(((L56*R_sun)/(K56*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.002862763625</v>
       </c>
-      <c r="AK56" s="91">
+      <c r="AK56" s="98">
         <f>AJ56*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>17513509.29</v>
       </c>
-      <c r="AL56" s="91">
+      <c r="AL56" s="98">
         <f t="shared" si="7"/>
         <v>12152075.7</v>
       </c>
@@ -8781,119 +8867,119 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87" t="s">
+      <c r="B57" s="94"/>
+      <c r="C57" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="88">
+      <c r="E57" s="95">
         <f>12.67+1.19</f>
         <v>13.86</v>
       </c>
-      <c r="F57" s="87" t="s">
+      <c r="F57" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="96" t="s">
+      <c r="G57" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="H57" s="89">
+      <c r="H57" s="96">
         <f>VLOOKUP(C57,'Lookup Tables'!$D$2:$F$4,MATCH(D57,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I57" s="90">
+      <c r="I57" s="97">
         <f t="shared" si="1"/>
         <v>11.56</v>
       </c>
-      <c r="J57" s="87">
+      <c r="J57" s="94">
         <v>4028.0</v>
       </c>
-      <c r="K57" s="88">
+      <c r="K57" s="95">
         <v>48.6326</v>
       </c>
-      <c r="L57" s="88">
+      <c r="L57" s="95">
         <v>0.65</v>
       </c>
-      <c r="M57" s="91">
+      <c r="M57" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N57" s="91">
+      <c r="N57" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O57" s="91">
+      <c r="O57" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P57" s="91">
+      <c r="P57" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="91">
+      <c r="Q57" s="98">
         <f>AL57*((L57*R_sun)/(K57*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R57" s="87">
+      <c r="R57" s="94">
         <v>38.03</v>
       </c>
-      <c r="S57" s="87">
+      <c r="S57" s="94">
         <v>4.62</v>
       </c>
-      <c r="T57" s="97" t="s">
+      <c r="T57" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="U57" s="97">
+      <c r="U57" s="105">
         <v>1956096.0</v>
       </c>
-      <c r="V57" s="98">
+      <c r="V57" s="106">
         <v>334.62</v>
       </c>
-      <c r="W57" s="87" t="s">
+      <c r="W57" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="X57" s="99">
+      <c r="X57" s="107">
         <v>1957117.0</v>
       </c>
-      <c r="Y57" s="100">
+      <c r="Y57" s="108">
         <v>53.179</v>
       </c>
-      <c r="Z57" s="101">
+      <c r="Z57" s="109">
         <v>3813.051</v>
       </c>
-      <c r="AA57" s="87"/>
-      <c r="AB57" s="87"/>
+      <c r="AA57" s="94"/>
+      <c r="AB57" s="94"/>
       <c r="AC57" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AD57" s="103">
+      <c r="AD57" s="111">
         <v>1980978.0</v>
       </c>
-      <c r="AE57" s="103">
+      <c r="AE57" s="111">
         <v>239.579</v>
       </c>
-      <c r="AF57" s="104">
+      <c r="AF57" s="112">
         <v>4241.608</v>
       </c>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="91">
+      <c r="AG57" s="98"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ57" s="91">
+      <c r="AJ57" s="98">
         <f>(AI57*100000000-((L57*R_sun)/(K57*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J57))-1))))/(((L57*R_sun)/(K57*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.01059995983</v>
       </c>
-      <c r="AK57" s="91">
+      <c r="AK57" s="98">
         <f>AJ57*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>64847301.16</v>
       </c>
-      <c r="AL57" s="91">
+      <c r="AL57" s="98">
         <f t="shared" si="7"/>
         <v>21336025.4</v>
       </c>
@@ -8903,114 +8989,114 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87" t="s">
+      <c r="B58" s="94"/>
+      <c r="C58" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="87" t="s">
+      <c r="D58" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="88">
+      <c r="E58" s="95">
         <v>17.2553549999999</v>
       </c>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="105" t="s">
+      <c r="G58" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="H58" s="89">
+      <c r="H58" s="96">
         <f>VLOOKUP(C58,'Lookup Tables'!$D$2:$F$4,MATCH(D58,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.3</v>
       </c>
-      <c r="I58" s="90">
+      <c r="I58" s="97">
         <f t="shared" si="1"/>
         <v>14.955355</v>
       </c>
-      <c r="J58" s="87">
+      <c r="J58" s="94">
         <v>3370.0</v>
       </c>
-      <c r="K58" s="88">
+      <c r="K58" s="95">
         <v>25.2788</v>
       </c>
-      <c r="L58" s="88">
+      <c r="L58" s="95">
         <v>0.232</v>
       </c>
-      <c r="M58" s="91">
+      <c r="M58" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N58" s="91">
+      <c r="N58" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O58" s="91">
+      <c r="O58" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P58" s="91">
+      <c r="P58" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="91">
+      <c r="Q58" s="98">
         <f>AL58*((L58*R_sun)/(K58*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87" t="s">
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="53">
+      <c r="U58" s="114">
         <v>1982959.0</v>
       </c>
-      <c r="V58" s="106">
+      <c r="V58" s="115">
         <v>1588.281</v>
       </c>
-      <c r="W58" s="87" t="s">
+      <c r="W58" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="X58" s="99">
+      <c r="X58" s="107">
         <v>1982955.0</v>
       </c>
-      <c r="Y58" s="107">
+      <c r="Y58" s="116">
         <v>1.977</v>
       </c>
-      <c r="Z58" s="106">
+      <c r="Z58" s="117">
         <v>291.693</v>
       </c>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
-      <c r="AC58" s="87" t="s">
+      <c r="AA58" s="94"/>
+      <c r="AB58" s="94"/>
+      <c r="AC58" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AD58" s="53">
+      <c r="AD58" s="55">
         <v>1982956.0</v>
       </c>
-      <c r="AE58" s="108">
+      <c r="AE58" s="118">
         <v>13.487</v>
       </c>
-      <c r="AF58" s="106">
+      <c r="AF58" s="117">
         <v>418.877</v>
       </c>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="91">
+      <c r="AG58" s="98"/>
+      <c r="AH58" s="98"/>
+      <c r="AI58" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ58" s="91">
+      <c r="AJ58" s="98">
         <f>(AI58*100000000-((L58*R_sun)/(K58*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J58))-1))))/(((L58*R_sun)/(K58*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.000741818359</v>
       </c>
-      <c r="AK58" s="91">
+      <c r="AK58" s="98">
         <f>AJ58*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>4538217.061</v>
       </c>
-      <c r="AL58" s="91">
+      <c r="AL58" s="98">
         <f t="shared" si="7"/>
         <v>6799244.578</v>
       </c>
@@ -9020,108 +9106,108 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="87" t="s">
+      <c r="D59" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="88">
+      <c r="E59" s="95">
         <v>17.3</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="89">
+      <c r="G59" s="113"/>
+      <c r="H59" s="96">
         <f>VLOOKUP(C59,'Lookup Tables'!$D$2:$F$4,MATCH(D59,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-8</v>
       </c>
-      <c r="I59" s="90">
+      <c r="I59" s="97">
         <f t="shared" si="1"/>
         <v>9.3</v>
       </c>
-      <c r="J59" s="87">
+      <c r="J59" s="94">
         <v>3450.0</v>
       </c>
-      <c r="K59" s="88">
+      <c r="K59" s="95">
         <v>56.854866378649</v>
       </c>
-      <c r="L59" s="87">
+      <c r="L59" s="94">
         <v>0.39</v>
       </c>
-      <c r="M59" s="109">
+      <c r="M59" s="119">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N59" s="110">
+      <c r="N59" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O59" s="111">
+      <c r="O59" s="121">
         <f t="shared" si="10"/>
         <v>0.0000000005752832431</v>
       </c>
-      <c r="P59" s="91">
+      <c r="P59" s="98">
         <f t="shared" si="5"/>
         <v>0.0000000005752832431</v>
       </c>
-      <c r="Q59" s="91">
+      <c r="Q59" s="98">
         <f>AL59*((L59*R_sun)/(K59*cminpc))^2</f>
         <v>0</v>
       </c>
-      <c r="R59" s="87"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="87"/>
-      <c r="V59" s="92"/>
-      <c r="W59" s="112" t="s">
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="X59" s="99">
+      <c r="X59" s="107">
         <v>1981258.0</v>
       </c>
-      <c r="Y59" s="100">
+      <c r="Y59" s="108">
         <v>22.812</v>
       </c>
-      <c r="Z59" s="101">
+      <c r="Z59" s="109">
         <v>5981.584</v>
       </c>
-      <c r="AA59" s="87"/>
-      <c r="AB59" s="87"/>
-      <c r="AC59" s="112" t="s">
+      <c r="AA59" s="94"/>
+      <c r="AB59" s="94"/>
+      <c r="AC59" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="AD59" s="50" t="s">
+      <c r="AD59" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AE59" s="103"/>
-      <c r="AF59" s="104"/>
-      <c r="AG59" s="91"/>
-      <c r="AH59" s="91"/>
-      <c r="AI59" s="91">
+      <c r="AE59" s="111"/>
+      <c r="AF59" s="112"/>
+      <c r="AG59" s="98"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ59" s="91">
+      <c r="AJ59" s="98">
         <f>(AI59*100000000-((L59*R_sun)/(K59*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*J59))-1))))/(((L59*R_sun)/(K59*cminpc))^2*PI()*((2*h_con*c_con^2/0.0000365^5)*(1/(EXP(h_con*c_con/(0.0000365*k_con*9000))-1))))</f>
         <v>0.4566519093</v>
       </c>
-      <c r="AK59" s="91">
+      <c r="AK59" s="98">
         <f>AJ59*PI()*(((2*h_con*c_con^2/0.0000135^5)*(1/(EXP(h_con*c_con/(0.0000135*k_con*9000))-1)))+((2*h_con*c_con^2/0.0000175^5)*(1/(EXP(h_con*c_con/(0.0000175*k_con*9000))-1))))/2*(1750-1350)/100000000</f>
         <v>2793656237</v>
       </c>
-      <c r="AL59" s="91">
+      <c r="AL59" s="98">
         <f t="shared" si="7"/>
         <v>107610432</v>
       </c>
-      <c r="AM59" s="113" t="str">
+      <c r="AM59" s="123" t="str">
         <f t="shared" si="8"/>
         <v>HD 5278 - active</v>
       </c>
@@ -9143,12 +9229,12 @@
       <c r="F60" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G60" s="114"/>
+      <c r="G60" s="124"/>
       <c r="H60" s="33">
         <f>VLOOKUP(C60,'Lookup Tables'!$D$2:$F$4,MATCH(D60,'Lookup Tables'!$D$1:$F$1),FALSE)</f>
         <v>-2.8</v>
       </c>
-      <c r="I60" s="95">
+      <c r="I60" s="103">
         <f t="shared" si="1"/>
         <v>12.930825</v>
       </c>
@@ -9183,25 +9269,25 @@
       </c>
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
-      <c r="T60" s="30" t="s">
+      <c r="T60" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="115">
+      <c r="U60" s="125">
         <v>1982960.0</v>
       </c>
-      <c r="V60" s="116">
+      <c r="V60" s="126">
         <v>10301.692</v>
       </c>
       <c r="W60" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="X60" s="115">
+      <c r="X60" s="127">
         <v>1982958.0</v>
       </c>
-      <c r="Y60" s="117">
+      <c r="Y60" s="128">
         <v>10.933</v>
       </c>
-      <c r="Z60" s="116">
+      <c r="Z60" s="129">
         <v>907.436</v>
       </c>
       <c r="AA60" s="30"/>
@@ -9209,13 +9295,13 @@
       <c r="AC60" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AD60" s="115">
+      <c r="AD60" s="127">
         <v>1982957.0</v>
       </c>
-      <c r="AE60" s="117">
+      <c r="AE60" s="128">
         <v>74.876</v>
       </c>
-      <c r="AF60" s="116">
+      <c r="AF60" s="129">
         <v>1449.669</v>
       </c>
       <c r="AG60" s="35"/>
@@ -9242,735 +9328,735 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="120"/>
-      <c r="N61" s="121"/>
-      <c r="O61" s="121"/>
-      <c r="P61" s="121"/>
-      <c r="Q61" s="121"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
-      <c r="Y61" s="118"/>
-      <c r="Z61" s="118"/>
-      <c r="AA61" s="118"/>
-      <c r="AB61" s="118"/>
-      <c r="AC61" s="118"/>
-      <c r="AD61" s="118"/>
-      <c r="AE61" s="118"/>
-      <c r="AF61" s="118"/>
-      <c r="AG61" s="121"/>
-      <c r="AH61" s="121"/>
-      <c r="AI61" s="121"/>
-      <c r="AJ61" s="121"/>
-      <c r="AK61" s="121"/>
-      <c r="AL61" s="121"/>
-      <c r="AM61" s="118"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="134"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="134"/>
+      <c r="Q61" s="134"/>
+      <c r="R61" s="131"/>
+      <c r="S61" s="131"/>
+      <c r="T61" s="135"/>
+      <c r="U61" s="135"/>
+      <c r="V61" s="135"/>
+      <c r="W61" s="131"/>
+      <c r="X61" s="131"/>
+      <c r="Y61" s="131"/>
+      <c r="Z61" s="131"/>
+      <c r="AA61" s="131"/>
+      <c r="AB61" s="131"/>
+      <c r="AC61" s="131"/>
+      <c r="AD61" s="131"/>
+      <c r="AE61" s="131"/>
+      <c r="AF61" s="131"/>
+      <c r="AG61" s="134"/>
+      <c r="AH61" s="134"/>
+      <c r="AI61" s="134"/>
+      <c r="AJ61" s="134"/>
+      <c r="AK61" s="134"/>
+      <c r="AL61" s="134"/>
+      <c r="AM61" s="131"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122" t="s">
+      <c r="B62" s="136"/>
+      <c r="C62" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="122" t="s">
+      <c r="D62" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="122">
+      <c r="E62" s="136">
         <v>22.43</v>
       </c>
-      <c r="F62" s="122">
+      <c r="F62" s="136">
         <v>7.7</v>
       </c>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122">
+      <c r="G62" s="136"/>
+      <c r="H62" s="136">
         <v>-2.8</v>
       </c>
-      <c r="I62" s="122">
+      <c r="I62" s="136">
         <v>19.63</v>
       </c>
-      <c r="J62" s="122">
+      <c r="J62" s="136">
         <v>2500.0</v>
       </c>
-      <c r="K62" s="122">
+      <c r="K62" s="136">
         <v>12.11</v>
       </c>
-      <c r="L62" s="122">
+      <c r="L62" s="136">
         <v>0.11</v>
       </c>
-      <c r="M62" s="123">
+      <c r="M62" s="137">
         <v>2.46E-15</v>
       </c>
-      <c r="N62" s="123">
+      <c r="N62" s="137">
         <v>3.54E-16</v>
       </c>
-      <c r="O62" s="123">
+      <c r="O62" s="137">
         <v>9.09E-14</v>
       </c>
-      <c r="P62" s="123">
+      <c r="P62" s="137">
         <v>9.09E-14</v>
       </c>
-      <c r="Q62" s="123">
+      <c r="Q62" s="137">
         <v>4.08E-14</v>
       </c>
-      <c r="R62" s="122"/>
-      <c r="S62" s="122"/>
-      <c r="T62" s="122" t="s">
+      <c r="R62" s="136"/>
+      <c r="S62" s="136"/>
+      <c r="T62" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="U62" s="122">
+      <c r="U62" s="138">
         <v>1167198.0</v>
       </c>
-      <c r="V62" s="122">
+      <c r="V62" s="138">
         <v>946.0</v>
       </c>
-      <c r="W62" s="122" t="s">
+      <c r="W62" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="X62" s="122">
+      <c r="X62" s="136">
         <v>1167200.0</v>
       </c>
-      <c r="Y62" s="122">
+      <c r="Y62" s="136">
         <v>0.006</v>
       </c>
-      <c r="Z62" s="122">
+      <c r="Z62" s="136">
         <v>1599.0</v>
       </c>
-      <c r="AA62" s="122"/>
-      <c r="AB62" s="122"/>
-      <c r="AC62" s="122" t="s">
+      <c r="AA62" s="136"/>
+      <c r="AB62" s="136"/>
+      <c r="AC62" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="AD62" s="122">
+      <c r="AD62" s="136">
         <v>1167200.0</v>
       </c>
-      <c r="AE62" s="122">
+      <c r="AE62" s="136">
         <v>0.006</v>
       </c>
-      <c r="AF62" s="122">
+      <c r="AF62" s="136">
         <v>1599.0</v>
       </c>
-      <c r="AG62" s="123"/>
-      <c r="AH62" s="123"/>
-      <c r="AI62" s="123">
+      <c r="AG62" s="137"/>
+      <c r="AH62" s="137"/>
+      <c r="AI62" s="137">
         <v>5.92E-17</v>
       </c>
-      <c r="AJ62" s="123">
+      <c r="AJ62" s="137">
         <v>8.06E-6</v>
       </c>
-      <c r="AK62" s="123">
+      <c r="AK62" s="137">
         <v>49300.0</v>
       </c>
-      <c r="AL62" s="123">
+      <c r="AL62" s="137">
         <v>973000.0</v>
       </c>
-      <c r="AM62" s="122"/>
+      <c r="AM62" s="136"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122" t="s">
+      <c r="B63" s="136"/>
+      <c r="C63" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="122" t="s">
+      <c r="D63" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="122">
+      <c r="E63" s="136">
         <v>14.052</v>
       </c>
-      <c r="F63" s="122">
+      <c r="F63" s="136">
         <v>1.0</v>
       </c>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122">
+      <c r="G63" s="136"/>
+      <c r="H63" s="136">
         <v>-8.0</v>
       </c>
-      <c r="I63" s="122">
+      <c r="I63" s="136">
         <v>6.052</v>
       </c>
-      <c r="J63" s="122">
+      <c r="J63" s="136">
         <v>3250.0</v>
       </c>
-      <c r="K63" s="122">
+      <c r="K63" s="136">
         <v>16.0</v>
       </c>
-      <c r="L63" s="122">
+      <c r="L63" s="136">
         <v>0.39</v>
       </c>
-      <c r="M63" s="123">
+      <c r="M63" s="137">
         <v>2.44E-10</v>
       </c>
-      <c r="N63" s="123">
+      <c r="N63" s="137">
         <v>3.34E-10</v>
       </c>
-      <c r="O63" s="123">
+      <c r="O63" s="137">
         <v>9.02E-9</v>
       </c>
-      <c r="P63" s="123">
+      <c r="P63" s="137">
         <v>9.02E-9</v>
       </c>
-      <c r="Q63" s="123">
+      <c r="Q63" s="137">
         <v>3.95E-11</v>
       </c>
-      <c r="R63" s="122"/>
-      <c r="S63" s="122"/>
-      <c r="T63" s="122" t="s">
+      <c r="R63" s="136"/>
+      <c r="S63" s="136"/>
+      <c r="T63" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="U63" s="122">
+      <c r="U63" s="138">
         <v>1167205.0</v>
       </c>
-      <c r="V63" s="122">
+      <c r="V63" s="138">
         <v>35092.0</v>
       </c>
-      <c r="W63" s="122" t="s">
+      <c r="W63" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="X63" s="122">
+      <c r="X63" s="136">
         <v>1167194.0</v>
       </c>
-      <c r="Y63" s="122">
+      <c r="Y63" s="136">
         <v>952.0</v>
       </c>
-      <c r="Z63" s="122">
+      <c r="Z63" s="136">
         <v>44205.0</v>
       </c>
-      <c r="AA63" s="122"/>
-      <c r="AB63" s="122"/>
-      <c r="AC63" s="122" t="s">
+      <c r="AA63" s="136"/>
+      <c r="AB63" s="136"/>
+      <c r="AC63" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="AD63" s="122">
+      <c r="AD63" s="136">
         <v>1167194.0</v>
       </c>
-      <c r="AE63" s="122">
+      <c r="AE63" s="136">
         <v>952.0</v>
       </c>
-      <c r="AF63" s="122">
+      <c r="AF63" s="136">
         <v>44205.0</v>
       </c>
-      <c r="AG63" s="123"/>
-      <c r="AH63" s="123"/>
-      <c r="AI63" s="123">
+      <c r="AG63" s="137"/>
+      <c r="AH63" s="137"/>
+      <c r="AI63" s="137">
         <v>1.6E-11</v>
       </c>
-      <c r="AJ63" s="123">
+      <c r="AJ63" s="137">
         <v>0.721</v>
       </c>
-      <c r="AK63" s="123">
+      <c r="AK63" s="137">
         <v>4.41E9</v>
       </c>
-      <c r="AL63" s="123">
+      <c r="AL63" s="137">
         <v>1.31E8</v>
       </c>
-      <c r="AM63" s="122"/>
+      <c r="AM63" s="136"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="124"/>
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="127"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="129"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="124"/>
-      <c r="S64" s="124"/>
-      <c r="T64" s="124"/>
-      <c r="U64" s="124"/>
-      <c r="V64" s="124"/>
-      <c r="W64" s="124"/>
-      <c r="X64" s="124"/>
-      <c r="Y64" s="124"/>
-      <c r="Z64" s="124"/>
-      <c r="AA64" s="124"/>
-      <c r="AB64" s="124"/>
-      <c r="AC64" s="124"/>
-      <c r="AD64" s="124"/>
-      <c r="AE64" s="124"/>
-      <c r="AF64" s="124"/>
-      <c r="AG64" s="128"/>
-      <c r="AH64" s="128"/>
-      <c r="AI64" s="128"/>
-      <c r="AJ64" s="128"/>
-      <c r="AK64" s="128"/>
-      <c r="AL64" s="128"/>
-      <c r="AM64" s="124"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="142"/>
+      <c r="N64" s="143"/>
+      <c r="O64" s="144"/>
+      <c r="P64" s="143"/>
+      <c r="Q64" s="143"/>
+      <c r="R64" s="139"/>
+      <c r="S64" s="139"/>
+      <c r="T64" s="145"/>
+      <c r="U64" s="145"/>
+      <c r="V64" s="145"/>
+      <c r="W64" s="139"/>
+      <c r="X64" s="139"/>
+      <c r="Y64" s="139"/>
+      <c r="Z64" s="139"/>
+      <c r="AA64" s="139"/>
+      <c r="AB64" s="139"/>
+      <c r="AC64" s="139"/>
+      <c r="AD64" s="139"/>
+      <c r="AE64" s="139"/>
+      <c r="AF64" s="139"/>
+      <c r="AG64" s="143"/>
+      <c r="AH64" s="143"/>
+      <c r="AI64" s="143"/>
+      <c r="AJ64" s="143"/>
+      <c r="AK64" s="143"/>
+      <c r="AL64" s="143"/>
+      <c r="AM64" s="139"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="130" t="s">
+      <c r="A65" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="131"/>
-      <c r="C65" s="131" t="s">
+      <c r="B65" s="147"/>
+      <c r="C65" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="133"/>
-      <c r="P65" s="133"/>
-      <c r="Q65" s="133"/>
-      <c r="AG65" s="123"/>
-      <c r="AH65" s="123"/>
-      <c r="AI65" s="123"/>
-      <c r="AJ65" s="123"/>
-      <c r="AK65" s="123"/>
-      <c r="AL65" s="123"/>
-      <c r="AM65" s="131"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="149"/>
+      <c r="M65" s="149"/>
+      <c r="N65" s="149"/>
+      <c r="O65" s="149"/>
+      <c r="P65" s="149"/>
+      <c r="Q65" s="149"/>
+      <c r="AG65" s="137"/>
+      <c r="AH65" s="137"/>
+      <c r="AI65" s="137"/>
+      <c r="AJ65" s="137"/>
+      <c r="AK65" s="137"/>
+      <c r="AL65" s="137"/>
+      <c r="AM65" s="147"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="134" t="s">
+      <c r="A66" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="122"/>
-      <c r="C66" s="122" t="s">
+      <c r="B66" s="136"/>
+      <c r="C66" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="133"/>
-      <c r="M66" s="133"/>
-      <c r="N66" s="133"/>
-      <c r="O66" s="133"/>
-      <c r="P66" s="133"/>
-      <c r="Q66" s="133"/>
-      <c r="AG66" s="123"/>
-      <c r="AH66" s="123"/>
-      <c r="AI66" s="123"/>
-      <c r="AJ66" s="123"/>
-      <c r="AK66" s="123"/>
-      <c r="AL66" s="123"/>
-      <c r="AM66" s="122"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="149"/>
+      <c r="N66" s="149"/>
+      <c r="O66" s="149"/>
+      <c r="P66" s="149"/>
+      <c r="Q66" s="149"/>
+      <c r="AG66" s="137"/>
+      <c r="AH66" s="137"/>
+      <c r="AI66" s="137"/>
+      <c r="AJ66" s="137"/>
+      <c r="AK66" s="137"/>
+      <c r="AL66" s="137"/>
+      <c r="AM66" s="136"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="135" t="s">
+      <c r="A67" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122" t="s">
+      <c r="B67" s="136"/>
+      <c r="C67" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="133"/>
-      <c r="P67" s="133"/>
-      <c r="Q67" s="133"/>
-      <c r="AG67" s="123"/>
-      <c r="AH67" s="123"/>
-      <c r="AI67" s="123"/>
-      <c r="AJ67" s="123"/>
-      <c r="AK67" s="123"/>
-      <c r="AL67" s="123"/>
-      <c r="AM67" s="122"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="149"/>
+      <c r="M67" s="149"/>
+      <c r="N67" s="149"/>
+      <c r="O67" s="149"/>
+      <c r="P67" s="149"/>
+      <c r="Q67" s="149"/>
+      <c r="AG67" s="137"/>
+      <c r="AH67" s="137"/>
+      <c r="AI67" s="137"/>
+      <c r="AJ67" s="137"/>
+      <c r="AK67" s="137"/>
+      <c r="AL67" s="137"/>
+      <c r="AM67" s="136"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="136" t="s">
+      <c r="A68" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="122"/>
-      <c r="C68" s="122" t="s">
+      <c r="B68" s="136"/>
+      <c r="C68" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="133"/>
-      <c r="N68" s="133"/>
-      <c r="O68" s="133"/>
-      <c r="P68" s="133"/>
-      <c r="Q68" s="133"/>
-      <c r="AG68" s="123"/>
-      <c r="AH68" s="123"/>
-      <c r="AI68" s="123"/>
-      <c r="AJ68" s="123"/>
-      <c r="AK68" s="123"/>
-      <c r="AL68" s="123"/>
-      <c r="AM68" s="122"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="149"/>
+      <c r="M68" s="149"/>
+      <c r="N68" s="149"/>
+      <c r="O68" s="149"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="149"/>
+      <c r="AG68" s="137"/>
+      <c r="AH68" s="137"/>
+      <c r="AI68" s="137"/>
+      <c r="AJ68" s="137"/>
+      <c r="AK68" s="137"/>
+      <c r="AL68" s="137"/>
+      <c r="AM68" s="136"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="137" t="s">
+      <c r="A69" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="122"/>
-      <c r="C69" s="122" t="s">
+      <c r="B69" s="136"/>
+      <c r="C69" s="136" t="s">
         <v>171</v>
       </c>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="133"/>
-      <c r="M69" s="133"/>
-      <c r="N69" s="133"/>
-      <c r="O69" s="133"/>
-      <c r="P69" s="133"/>
-      <c r="Q69" s="133"/>
-      <c r="AG69" s="123"/>
-      <c r="AH69" s="123"/>
-      <c r="AI69" s="123"/>
-      <c r="AJ69" s="123"/>
-      <c r="AK69" s="123"/>
-      <c r="AL69" s="123"/>
-      <c r="AM69" s="122"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="149"/>
+      <c r="M69" s="149"/>
+      <c r="N69" s="149"/>
+      <c r="O69" s="149"/>
+      <c r="P69" s="149"/>
+      <c r="Q69" s="149"/>
+      <c r="AG69" s="137"/>
+      <c r="AH69" s="137"/>
+      <c r="AI69" s="137"/>
+      <c r="AJ69" s="137"/>
+      <c r="AK69" s="137"/>
+      <c r="AL69" s="137"/>
+      <c r="AM69" s="136"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="138" t="s">
+      <c r="A70" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="122"/>
-      <c r="C70" s="122" t="s">
+      <c r="B70" s="136"/>
+      <c r="C70" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="AM70" s="122"/>
+      <c r="AM70" s="136"/>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="131"/>
-      <c r="C72" s="131" t="s">
+      <c r="B72" s="147"/>
+      <c r="C72" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="AM72" s="131"/>
+      <c r="AM72" s="147"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="122"/>
-      <c r="C73" s="122" t="s">
+      <c r="B73" s="136"/>
+      <c r="C73" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="AM73" s="122"/>
+      <c r="AM73" s="136"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="122"/>
-      <c r="C74" s="122" t="s">
+      <c r="B74" s="136"/>
+      <c r="C74" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="H74" s="132"/>
-      <c r="I74" s="132"/>
-      <c r="K74" s="133"/>
-      <c r="L74" s="133"/>
-      <c r="M74" s="133"/>
-      <c r="N74" s="133"/>
-      <c r="O74" s="133"/>
-      <c r="P74" s="133"/>
-      <c r="Q74" s="133"/>
-      <c r="AG74" s="123"/>
-      <c r="AH74" s="123"/>
-      <c r="AI74" s="123"/>
-      <c r="AJ74" s="123"/>
-      <c r="AK74" s="123"/>
-      <c r="AL74" s="123"/>
-      <c r="AM74" s="122"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="K74" s="149"/>
+      <c r="L74" s="149"/>
+      <c r="M74" s="149"/>
+      <c r="N74" s="149"/>
+      <c r="O74" s="149"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="149"/>
+      <c r="AG74" s="137"/>
+      <c r="AH74" s="137"/>
+      <c r="AI74" s="137"/>
+      <c r="AJ74" s="137"/>
+      <c r="AK74" s="137"/>
+      <c r="AL74" s="137"/>
+      <c r="AM74" s="136"/>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="139"/>
-      <c r="B76" s="131"/>
-      <c r="C76" s="131" t="s">
+      <c r="A76" s="155"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="AM76" s="131"/>
+      <c r="AM76" s="147"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="139"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="140" t="s">
+      <c r="A77" s="155"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="156" t="s">
         <v>178</v>
       </c>
-      <c r="AG77" s="123"/>
-      <c r="AH77" s="123"/>
-      <c r="AI77" s="123"/>
-      <c r="AJ77" s="123"/>
-      <c r="AK77" s="123"/>
-      <c r="AL77" s="123"/>
-      <c r="AM77" s="140"/>
+      <c r="AG77" s="137"/>
+      <c r="AH77" s="137"/>
+      <c r="AI77" s="137"/>
+      <c r="AJ77" s="137"/>
+      <c r="AK77" s="137"/>
+      <c r="AL77" s="137"/>
+      <c r="AM77" s="156"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122" t="s">
+      <c r="B78" s="136"/>
+      <c r="C78" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="AG78" s="123"/>
-      <c r="AH78" s="123"/>
-      <c r="AI78" s="123"/>
-      <c r="AJ78" s="123"/>
-      <c r="AK78" s="123"/>
-      <c r="AL78" s="123"/>
-      <c r="AM78" s="122"/>
+      <c r="AG78" s="137"/>
+      <c r="AH78" s="137"/>
+      <c r="AI78" s="137"/>
+      <c r="AJ78" s="137"/>
+      <c r="AK78" s="137"/>
+      <c r="AL78" s="137"/>
+      <c r="AM78" s="136"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122" t="s">
+      <c r="B79" s="136"/>
+      <c r="C79" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="AG79" s="123"/>
-      <c r="AH79" s="123"/>
-      <c r="AI79" s="123"/>
-      <c r="AJ79" s="123"/>
-      <c r="AK79" s="123"/>
-      <c r="AL79" s="123"/>
-      <c r="AM79" s="122"/>
+      <c r="AG79" s="137"/>
+      <c r="AH79" s="137"/>
+      <c r="AI79" s="137"/>
+      <c r="AJ79" s="137"/>
+      <c r="AK79" s="137"/>
+      <c r="AL79" s="137"/>
+      <c r="AM79" s="136"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="122"/>
-      <c r="C80" s="122" t="s">
+      <c r="B80" s="136"/>
+      <c r="C80" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="AG80" s="123"/>
-      <c r="AH80" s="123"/>
-      <c r="AI80" s="123"/>
-      <c r="AJ80" s="123"/>
-      <c r="AK80" s="123"/>
-      <c r="AL80" s="123"/>
-      <c r="AM80" s="122"/>
+      <c r="AG80" s="137"/>
+      <c r="AH80" s="137"/>
+      <c r="AI80" s="137"/>
+      <c r="AJ80" s="137"/>
+      <c r="AK80" s="137"/>
+      <c r="AL80" s="137"/>
+      <c r="AM80" s="136"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="122"/>
-      <c r="C81" s="122" t="s">
+      <c r="B81" s="136"/>
+      <c r="C81" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="AG81" s="123"/>
-      <c r="AH81" s="123"/>
-      <c r="AI81" s="123"/>
-      <c r="AJ81" s="123"/>
-      <c r="AK81" s="123"/>
-      <c r="AL81" s="123"/>
-      <c r="AM81" s="122"/>
+      <c r="AG81" s="137"/>
+      <c r="AH81" s="137"/>
+      <c r="AI81" s="137"/>
+      <c r="AJ81" s="137"/>
+      <c r="AK81" s="137"/>
+      <c r="AL81" s="137"/>
+      <c r="AM81" s="136"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="122"/>
-      <c r="C82" s="122" t="s">
+      <c r="B82" s="136"/>
+      <c r="C82" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="AG82" s="123"/>
-      <c r="AH82" s="123"/>
-      <c r="AI82" s="123"/>
-      <c r="AJ82" s="123"/>
-      <c r="AK82" s="123"/>
-      <c r="AL82" s="123"/>
-      <c r="AM82" s="122"/>
+      <c r="AG82" s="137"/>
+      <c r="AH82" s="137"/>
+      <c r="AI82" s="137"/>
+      <c r="AJ82" s="137"/>
+      <c r="AK82" s="137"/>
+      <c r="AL82" s="137"/>
+      <c r="AM82" s="136"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="122"/>
-      <c r="C83" s="122" t="s">
+      <c r="B83" s="136"/>
+      <c r="C83" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="AG83" s="123"/>
-      <c r="AH83" s="123"/>
-      <c r="AI83" s="123"/>
-      <c r="AJ83" s="123"/>
-      <c r="AK83" s="123"/>
-      <c r="AL83" s="123"/>
-      <c r="AM83" s="122"/>
+      <c r="AG83" s="137"/>
+      <c r="AH83" s="137"/>
+      <c r="AI83" s="137"/>
+      <c r="AJ83" s="137"/>
+      <c r="AK83" s="137"/>
+      <c r="AL83" s="137"/>
+      <c r="AM83" s="136"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="122"/>
-      <c r="C84" s="122" t="s">
+      <c r="B84" s="136"/>
+      <c r="C84" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="AG84" s="123"/>
-      <c r="AH84" s="123"/>
-      <c r="AI84" s="123"/>
-      <c r="AJ84" s="123"/>
-      <c r="AK84" s="123"/>
-      <c r="AL84" s="123"/>
-      <c r="AM84" s="122"/>
+      <c r="AG84" s="137"/>
+      <c r="AH84" s="137"/>
+      <c r="AI84" s="137"/>
+      <c r="AJ84" s="137"/>
+      <c r="AK84" s="137"/>
+      <c r="AL84" s="137"/>
+      <c r="AM84" s="136"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122" t="s">
+      <c r="B85" s="136"/>
+      <c r="C85" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="AG85" s="123"/>
-      <c r="AH85" s="123"/>
-      <c r="AI85" s="123"/>
-      <c r="AJ85" s="123"/>
-      <c r="AK85" s="123"/>
-      <c r="AL85" s="123"/>
-      <c r="AM85" s="122"/>
+      <c r="AG85" s="137"/>
+      <c r="AH85" s="137"/>
+      <c r="AI85" s="137"/>
+      <c r="AJ85" s="137"/>
+      <c r="AK85" s="137"/>
+      <c r="AL85" s="137"/>
+      <c r="AM85" s="136"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122" t="s">
+      <c r="B86" s="136"/>
+      <c r="C86" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="AG86" s="123"/>
-      <c r="AH86" s="123"/>
-      <c r="AI86" s="123"/>
-      <c r="AJ86" s="123"/>
-      <c r="AK86" s="123"/>
-      <c r="AL86" s="123"/>
-      <c r="AM86" s="122"/>
+      <c r="AG86" s="137"/>
+      <c r="AH86" s="137"/>
+      <c r="AI86" s="137"/>
+      <c r="AJ86" s="137"/>
+      <c r="AK86" s="137"/>
+      <c r="AL86" s="137"/>
+      <c r="AM86" s="136"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="AG87" s="123"/>
-      <c r="AH87" s="123"/>
-      <c r="AI87" s="123"/>
-      <c r="AJ87" s="123"/>
-      <c r="AK87" s="123"/>
-      <c r="AL87" s="123"/>
+      <c r="AG87" s="137"/>
+      <c r="AH87" s="137"/>
+      <c r="AI87" s="137"/>
+      <c r="AJ87" s="137"/>
+      <c r="AK87" s="137"/>
+      <c r="AL87" s="137"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="131"/>
-      <c r="C88" s="131" t="s">
+      <c r="B88" s="147"/>
+      <c r="C88" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="K88" s="131" t="s">
+      <c r="K88" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="AM88" s="131"/>
+      <c r="AM88" s="147"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="131" t="s">
+      <c r="B89" s="147"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H89" s="131" t="s">
+      <c r="H89" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="I89" s="131"/>
-      <c r="K89" s="122" t="s">
+      <c r="I89" s="147"/>
+      <c r="K89" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="AM89" s="131"/>
+      <c r="AM89" s="147"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122" t="s">
+      <c r="B90" s="136"/>
+      <c r="C90" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="D90" s="122" t="s">
+      <c r="D90" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="H90" s="122" t="s">
+      <c r="H90" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="K90" s="122" t="s">
+      <c r="K90" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="AM90" s="122"/>
+      <c r="AM90" s="136"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="122"/>
-      <c r="C91" s="122" t="s">
+      <c r="B91" s="136"/>
+      <c r="C91" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="122" t="s">
+      <c r="D91" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="H91" s="122" t="s">
+      <c r="H91" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="K91" s="122" t="s">
+      <c r="K91" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="AM91" s="122"/>
+      <c r="AM91" s="136"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="122"/>
-      <c r="C92" s="122" t="s">
+      <c r="B92" s="136"/>
+      <c r="C92" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="D92" s="122" t="s">
+      <c r="D92" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="H92" s="122" t="s">
+      <c r="H92" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="K92" s="122" t="s">
+      <c r="K92" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="AM92" s="122"/>
+      <c r="AM92" s="136"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="122"/>
-      <c r="C93" s="122" t="s">
+      <c r="B93" s="136"/>
+      <c r="C93" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="D93" s="122" t="s">
+      <c r="D93" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="H93" s="122" t="s">
+      <c r="H93" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="K93" s="122" t="s">
+      <c r="K93" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="AM93" s="122"/>
+      <c r="AM93" s="136"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="K94" s="122" t="s">
+      <c r="K94" s="136" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="131"/>
-      <c r="C95" s="131" t="s">
+      <c r="B95" s="147"/>
+      <c r="C95" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="AM95" s="131"/>
+      <c r="AM95" s="147"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="122"/>
-      <c r="C96" s="122" t="s">
+      <c r="B96" s="136"/>
+      <c r="C96" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="AM96" s="122"/>
+      <c r="AM96" s="136"/>
     </row>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
@@ -9981,27 +10067,27 @@
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="J105" s="123"/>
+      <c r="J105" s="137"/>
     </row>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="J107" s="123"/>
+      <c r="J107" s="137"/>
     </row>
     <row r="108" ht="15.75" customHeight="1"/>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="J110" s="123"/>
+      <c r="J110" s="137"/>
     </row>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="D112" s="131"/>
+      <c r="D112" s="147"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="J113" s="123"/>
+      <c r="J113" s="137"/>
     </row>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="J115" s="123"/>
+      <c r="J115" s="137"/>
     </row>
     <row r="116" ht="15.75" customHeight="1"/>
     <row r="117" ht="15.75" customHeight="1"/>
@@ -10983,1626 +11069,1626 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="141" t="str">
+      <c r="A1" s="157" t="str">
         <f>Calculations!A2</f>
         <v>Target</v>
       </c>
-      <c r="B1" s="141" t="str">
+      <c r="B1" s="157" t="str">
         <f>Calculations!I2</f>
         <v>U_flare</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="158" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="158" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="141" t="str">
+      <c r="A2" s="157" t="str">
         <f>Calculations!A4</f>
         <v>TOI-244</v>
       </c>
-      <c r="B2" s="141">
+      <c r="B2" s="157">
         <f>Calculations!I4</f>
         <v>13.09</v>
       </c>
-      <c r="C2" s="143">
+      <c r="C2" s="159">
         <f>Calculations!M4</f>
         <v>0</v>
       </c>
-      <c r="D2" s="143">
+      <c r="D2" s="159">
         <f>Calculations!N4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="159">
         <f>Calculations!O4</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="141" t="str">
+      <c r="A3" s="157" t="str">
         <f>Calculations!A5</f>
         <v>TOI-1468</v>
       </c>
-      <c r="B3" s="141">
+      <c r="B3" s="157">
         <f>Calculations!I5</f>
         <v>14.4</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="159">
         <f>Calculations!M5</f>
         <v>0</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="159">
         <f>Calculations!N5</f>
         <v>0</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="159">
         <f>Calculations!O5</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="141" t="str">
+      <c r="A4" s="157" t="str">
         <f>Calculations!A6</f>
         <v>TOI-1695</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="157">
         <f>Calculations!I6</f>
         <v>12.05</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="159">
         <f>Calculations!M6</f>
         <v>0</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="159">
         <f>Calculations!N6</f>
         <v>0</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="159">
         <f>Calculations!O6</f>
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="141" t="str">
+      <c r="A5" s="157" t="str">
         <f>Calculations!A7</f>
         <v>TOI-540</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="157">
         <f>Calculations!I7</f>
         <v>9.18</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="159">
         <f>Calculations!M7</f>
         <v>0</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="159">
         <f>Calculations!N7</f>
         <v>0</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="159">
         <f>Calculations!O7</f>
         <v>0.0000000006368567028</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="141" t="str">
+      <c r="A6" s="157" t="str">
         <f>Calculations!A8</f>
         <v>TOI-2540</v>
       </c>
-      <c r="B6" s="141">
+      <c r="B6" s="157">
         <f>Calculations!I8</f>
         <v>9.53</v>
       </c>
-      <c r="C6" s="143">
+      <c r="C6" s="159">
         <f>Calculations!M8</f>
         <v>0</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="159">
         <f>Calculations!N8</f>
         <v>0</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="159">
         <f>Calculations!O8</f>
         <v>0.0000000004734146836</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="141" t="str">
+      <c r="A7" s="157" t="str">
         <f>Calculations!A9</f>
         <v>TOI-700</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="157">
         <f>Calculations!I9</f>
         <v>13.41</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="159">
         <f>Calculations!M9</f>
         <v>0</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="159">
         <f>Calculations!N9</f>
         <v>0</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="159">
         <f>Calculations!O9</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="141" t="str">
+      <c r="A8" s="157" t="str">
         <f>Calculations!A10</f>
         <v>TOI-1730</v>
       </c>
-      <c r="B8" s="141">
+      <c r="B8" s="157">
         <f>Calculations!I10</f>
         <v>12.51</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="159">
         <f>Calculations!M10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="159">
         <f>Calculations!N10</f>
         <v>0</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="159">
         <f>Calculations!O10</f>
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="141" t="str">
+      <c r="A9" s="157" t="str">
         <f>Calculations!A11</f>
         <v>G 9-40</v>
       </c>
-      <c r="B9" s="141">
+      <c r="B9" s="157">
         <f>Calculations!I11</f>
         <v>14.98</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="159">
         <f>Calculations!M11</f>
         <v>0</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="159">
         <f>Calculations!N11</f>
         <v>0</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="159">
         <f>Calculations!O11</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="141" t="str">
+      <c r="A10" s="157" t="str">
         <f>Calculations!A12</f>
         <v>TOI-620</v>
       </c>
-      <c r="B10" s="141">
+      <c r="B10" s="157">
         <f>Calculations!I12</f>
         <v>12.58</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="159">
         <f>Calculations!M12</f>
         <v>0</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="159">
         <f>Calculations!N12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="143">
+      <c r="E10" s="159">
         <f>Calculations!O12</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="141" t="str">
+      <c r="A11" s="157" t="str">
         <f>Calculations!A13</f>
         <v>GJ 357</v>
       </c>
-      <c r="B11" s="141">
+      <c r="B11" s="157">
         <f>Calculations!I13</f>
         <v>11.35</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="159">
         <f>Calculations!M13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="159">
         <f>Calculations!N13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="159">
         <f>Calculations!O13</f>
         <v>0.0000000001012702131</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="141" t="str">
+      <c r="A12" s="157" t="str">
         <f>Calculations!A14</f>
         <v>TOI-5388</v>
       </c>
-      <c r="B12" s="141">
+      <c r="B12" s="157">
         <f>Calculations!I14</f>
         <v>14.05</v>
       </c>
-      <c r="C12" s="143">
+      <c r="C12" s="159">
         <f>Calculations!M14</f>
         <v>0</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="159">
         <f>Calculations!N14</f>
         <v>0</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="159">
         <f>Calculations!O14</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="141" t="str">
+      <c r="A13" s="157" t="str">
         <f>Calculations!A15</f>
         <v>LTT 3780</v>
       </c>
-      <c r="B13" s="141">
+      <c r="B13" s="157">
         <f>Calculations!I15</f>
         <v>13.6</v>
       </c>
-      <c r="C13" s="143">
+      <c r="C13" s="159">
         <f>Calculations!M15</f>
         <v>0</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="159">
         <f>Calculations!N15</f>
         <v>0</v>
       </c>
-      <c r="E13" s="143">
+      <c r="E13" s="159">
         <f>Calculations!O15</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="141" t="str">
+      <c r="A14" s="157" t="str">
         <f>Calculations!A16</f>
         <v>TOI-1801</v>
       </c>
-      <c r="B14" s="141">
+      <c r="B14" s="157">
         <f>Calculations!I16</f>
         <v>14.15</v>
       </c>
-      <c r="C14" s="143">
+      <c r="C14" s="159">
         <f>Calculations!M16</f>
         <v>0</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="159">
         <f>Calculations!N16</f>
         <v>0</v>
       </c>
-      <c r="E14" s="143">
+      <c r="E14" s="159">
         <f>Calculations!O16</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="141" t="str">
+      <c r="A15" s="157" t="str">
         <f>Calculations!A17</f>
         <v>TOI-1266</v>
       </c>
-      <c r="B15" s="141">
+      <c r="B15" s="157">
         <f>Calculations!I17</f>
         <v>14.23</v>
       </c>
-      <c r="C15" s="143">
+      <c r="C15" s="159">
         <f>Calculations!M17</f>
         <v>0</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="159">
         <f>Calculations!N17</f>
         <v>0</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="159">
         <f>Calculations!O17</f>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="141" t="str">
+      <c r="A16" s="157" t="str">
         <f>Calculations!A18</f>
         <v>TOI-6599</v>
       </c>
-      <c r="B16" s="141">
+      <c r="B16" s="157">
         <f>Calculations!I18</f>
         <v>9.79</v>
       </c>
-      <c r="C16" s="143">
+      <c r="C16" s="159">
         <f>Calculations!M18</f>
         <v>0</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="159">
         <f>Calculations!N18</f>
         <v>0</v>
       </c>
-      <c r="E16" s="143">
+      <c r="E16" s="159">
         <f>Calculations!O18</f>
         <v>0.000000000379805915</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="141" t="str">
+      <c r="A17" s="157" t="str">
         <f>Calculations!A19</f>
         <v>TOI-2136</v>
       </c>
-      <c r="B17" s="141">
+      <c r="B17" s="157">
         <f>Calculations!I19</f>
         <v>14.03</v>
       </c>
-      <c r="C17" s="143">
+      <c r="C17" s="159">
         <f>Calculations!M19</f>
         <v>0</v>
       </c>
-      <c r="D17" s="143">
+      <c r="D17" s="159">
         <f>Calculations!N19</f>
         <v>0</v>
       </c>
-      <c r="E17" s="143">
+      <c r="E17" s="159">
         <f>Calculations!O19</f>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="141" t="str">
+      <c r="A18" s="157" t="str">
         <f>Calculations!A20</f>
         <v>TOI-2095</v>
       </c>
-      <c r="B18" s="141">
+      <c r="B18" s="157">
         <f>Calculations!I20</f>
         <v>13.07</v>
       </c>
-      <c r="C18" s="143">
+      <c r="C18" s="159">
         <f>Calculations!M20</f>
         <v>0</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="159">
         <f>Calculations!N20</f>
         <v>0</v>
       </c>
-      <c r="E18" s="143">
+      <c r="E18" s="159">
         <f>Calculations!O20</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="141" t="str">
+      <c r="A19" s="157" t="str">
         <f>Calculations!A21</f>
         <v>LHS 475</v>
       </c>
-      <c r="B19" s="141">
+      <c r="B19" s="157">
         <f>Calculations!I21</f>
         <v>13.28</v>
       </c>
-      <c r="C19" s="143">
+      <c r="C19" s="159">
         <f>Calculations!M21</f>
         <v>0</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="159">
         <f>Calculations!N21</f>
         <v>0</v>
       </c>
-      <c r="E19" s="143">
+      <c r="E19" s="159">
         <f>Calculations!O21</f>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="141" t="str">
+      <c r="A20" s="157" t="str">
         <f>Calculations!A22</f>
         <v>TOI-1759</v>
       </c>
-      <c r="B20" s="141">
+      <c r="B20" s="157">
         <f>Calculations!I22</f>
         <v>12.58</v>
       </c>
-      <c r="C20" s="143">
+      <c r="C20" s="159">
         <f>Calculations!M22</f>
         <v>0</v>
       </c>
-      <c r="D20" s="143">
+      <c r="D20" s="159">
         <f>Calculations!N22</f>
         <v>0</v>
       </c>
-      <c r="E20" s="143">
+      <c r="E20" s="159">
         <f>Calculations!O22</f>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="141" t="str">
+      <c r="A21" s="157" t="str">
         <f>Calculations!A23</f>
         <v>TOI-1231</v>
       </c>
-      <c r="B21" s="141">
+      <c r="B21" s="157">
         <f>Calculations!I23</f>
         <v>12.62</v>
       </c>
-      <c r="C21" s="143">
+      <c r="C21" s="159">
         <f>Calculations!M23</f>
         <v>0</v>
       </c>
-      <c r="D21" s="143">
+      <c r="D21" s="159">
         <f>Calculations!N23</f>
         <v>0</v>
       </c>
-      <c r="E21" s="143">
+      <c r="E21" s="159">
         <f>Calculations!O23</f>
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="141" t="str">
+      <c r="A22" s="157" t="str">
         <f>Calculations!A24</f>
         <v>TOI-198</v>
       </c>
-      <c r="B22" s="141">
+      <c r="B22" s="157">
         <f>Calculations!I24</f>
         <v>12.09</v>
       </c>
-      <c r="C22" s="143">
+      <c r="C22" s="159">
         <f>Calculations!M24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="143">
+      <c r="D22" s="159">
         <f>Calculations!N24</f>
         <v>0</v>
       </c>
-      <c r="E22" s="143">
+      <c r="E22" s="159">
         <f>Calculations!O24</f>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="141" t="str">
+      <c r="A23" s="157" t="str">
         <f>Calculations!A25</f>
         <v>LP 791-18</v>
       </c>
-      <c r="B23" s="141">
+      <c r="B23" s="157">
         <f>Calculations!I25</f>
         <v>21.3</v>
       </c>
-      <c r="C23" s="143">
+      <c r="C23" s="159">
         <f>Calculations!M25</f>
         <v>0</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="159">
         <f>Calculations!N25</f>
         <v>0</v>
       </c>
-      <c r="E23" s="143">
+      <c r="E23" s="159">
         <f>Calculations!O25</f>
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="141" t="str">
+      <c r="A24" s="157" t="str">
         <f>Calculations!A26</f>
         <v>TOI-406</v>
       </c>
-      <c r="B24" s="141">
+      <c r="B24" s="157">
         <f>Calculations!I26</f>
         <v>14.25</v>
       </c>
-      <c r="C24" s="143">
+      <c r="C24" s="159">
         <f>Calculations!M26</f>
         <v>0</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="159">
         <f>Calculations!N26</f>
         <v>0</v>
       </c>
-      <c r="E24" s="143">
+      <c r="E24" s="159">
         <f>Calculations!O26</f>
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="141" t="str">
+      <c r="A25" s="157" t="str">
         <f>Calculations!A27</f>
         <v>TOI-1224</v>
       </c>
-      <c r="B25" s="141">
+      <c r="B25" s="157">
         <f>Calculations!I27</f>
         <v>8.71</v>
       </c>
-      <c r="C25" s="143">
+      <c r="C25" s="159">
         <f>Calculations!M27</f>
         <v>0</v>
       </c>
-      <c r="D25" s="143">
+      <c r="D25" s="159">
         <f>Calculations!N27</f>
         <v>0</v>
       </c>
-      <c r="E25" s="143">
+      <c r="E25" s="159">
         <f>Calculations!O27</f>
         <v>0.0000000009484222284</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="141" t="str">
+      <c r="A26" s="157" t="str">
         <f>Calculations!A28</f>
         <v>K2-72</v>
       </c>
-      <c r="B26" s="141">
+      <c r="B26" s="157">
         <f>Calculations!I28</f>
         <v>9.77</v>
       </c>
-      <c r="C26" s="143">
+      <c r="C26" s="159">
         <f>Calculations!M28</f>
         <v>0</v>
       </c>
-      <c r="D26" s="143">
+      <c r="D26" s="159">
         <f>Calculations!N28</f>
         <v>0</v>
       </c>
-      <c r="E26" s="143">
+      <c r="E26" s="159">
         <f>Calculations!O28</f>
         <v>0.0000000003862973457</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="141" t="str">
+      <c r="A27" s="157" t="str">
         <f>Calculations!A29</f>
         <v>TOI-1467</v>
       </c>
-      <c r="B27" s="141">
+      <c r="B27" s="157">
         <f>Calculations!I29</f>
         <v>12.29</v>
       </c>
-      <c r="C27" s="143">
+      <c r="C27" s="159">
         <f>Calculations!M29</f>
         <v>0</v>
       </c>
-      <c r="D27" s="143">
+      <c r="D27" s="159">
         <f>Calculations!N29</f>
         <v>0</v>
       </c>
-      <c r="E27" s="143">
+      <c r="E27" s="159">
         <f>Calculations!O29</f>
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="141" t="str">
+      <c r="A28" s="157" t="str">
         <f>Calculations!A30</f>
         <v>TOI-2285</v>
       </c>
-      <c r="B28" s="141">
+      <c r="B28" s="157">
         <f>Calculations!I30</f>
         <v>13.77</v>
       </c>
-      <c r="C28" s="143">
+      <c r="C28" s="159">
         <f>Calculations!M30</f>
         <v>0</v>
       </c>
-      <c r="D28" s="143">
+      <c r="D28" s="159">
         <f>Calculations!N30</f>
         <v>0</v>
       </c>
-      <c r="E28" s="143">
+      <c r="E28" s="159">
         <f>Calculations!O30</f>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="141" t="str">
+      <c r="A29" s="157" t="str">
         <f>Calculations!A31</f>
         <v>TOI-2094</v>
       </c>
-      <c r="B29" s="141">
+      <c r="B29" s="157">
         <f>Calculations!I31</f>
         <v>9.16</v>
       </c>
-      <c r="C29" s="143">
+      <c r="C29" s="159">
         <f>Calculations!M31</f>
         <v>0</v>
       </c>
-      <c r="D29" s="143">
+      <c r="D29" s="159">
         <f>Calculations!N31</f>
         <v>0</v>
       </c>
-      <c r="E29" s="143">
+      <c r="E29" s="159">
         <f>Calculations!O31</f>
         <v>0.0000000006477415021</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="141" t="str">
+      <c r="A30" s="157" t="str">
         <f>Calculations!A32</f>
         <v>LP 714-47</v>
       </c>
-      <c r="B30" s="141">
+      <c r="B30" s="157">
         <f>Calculations!I32</f>
-        <v>13.21</v>
-      </c>
-      <c r="C30" s="143">
+        <v>12.8</v>
+      </c>
+      <c r="C30" s="159">
         <f>Calculations!M32</f>
         <v>0</v>
       </c>
-      <c r="D30" s="143">
+      <c r="D30" s="159">
         <f>Calculations!N32</f>
         <v>0</v>
       </c>
-      <c r="E30" s="143">
+      <c r="E30" s="159">
         <f>Calculations!O32</f>
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="141" t="str">
+      <c r="A31" s="157" t="str">
         <f>Calculations!A33</f>
         <v>TOI-2015</v>
       </c>
-      <c r="B31" s="141">
+      <c r="B31" s="157">
         <f>Calculations!I33</f>
         <v>10.89</v>
       </c>
-      <c r="C31" s="143">
+      <c r="C31" s="159">
         <f>Calculations!M33</f>
         <v>0</v>
       </c>
-      <c r="D31" s="143">
+      <c r="D31" s="159">
         <f>Calculations!N33</f>
         <v>0</v>
       </c>
-      <c r="E31" s="143">
+      <c r="E31" s="159">
         <f>Calculations!O33</f>
         <v>0.0000000001495414971</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="141" t="str">
+      <c r="A32" s="157" t="str">
         <f>Calculations!A34</f>
         <v>TOI-1728</v>
       </c>
-      <c r="B32" s="141">
+      <c r="B32" s="157">
         <f>Calculations!I34</f>
         <v>12.64</v>
       </c>
-      <c r="C32" s="143">
+      <c r="C32" s="159">
         <f>Calculations!M34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="143">
+      <c r="D32" s="159">
         <f>Calculations!N34</f>
         <v>0</v>
       </c>
-      <c r="E32" s="143">
+      <c r="E32" s="159">
         <f>Calculations!O34</f>
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="141" t="str">
+      <c r="A33" s="157" t="str">
         <f>Calculations!A35</f>
         <v>TOI-233</v>
       </c>
-      <c r="B33" s="141">
+      <c r="B33" s="157">
         <f>Calculations!I35</f>
         <v>13.78</v>
       </c>
-      <c r="C33" s="143">
+      <c r="C33" s="159">
         <f>Calculations!M35</f>
         <v>0</v>
       </c>
-      <c r="D33" s="143">
+      <c r="D33" s="159">
         <f>Calculations!N35</f>
         <v>0</v>
       </c>
-      <c r="E33" s="143">
+      <c r="E33" s="159">
         <f>Calculations!O35</f>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="141" t="str">
+      <c r="A34" s="157" t="str">
         <f>Calculations!A36</f>
         <v>TOI-4438</v>
       </c>
-      <c r="B34" s="141">
+      <c r="B34" s="157">
         <f>Calculations!I36</f>
         <v>13.78</v>
       </c>
-      <c r="C34" s="143">
+      <c r="C34" s="159">
         <f>Calculations!M36</f>
         <v>0</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="159">
         <f>Calculations!N36</f>
         <v>0</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="159">
         <f>Calculations!O36</f>
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="141" t="str">
+      <c r="A35" s="157" t="str">
         <f>Calculations!A37</f>
         <v>TOI-1452</v>
       </c>
-      <c r="B35" s="141">
+      <c r="B35" s="157">
         <f>Calculations!I37</f>
         <v>9.17</v>
       </c>
-      <c r="C35" s="143">
+      <c r="C35" s="159">
         <f>Calculations!M37</f>
         <v>0</v>
       </c>
-      <c r="D35" s="143">
+      <c r="D35" s="159">
         <f>Calculations!N37</f>
         <v>0</v>
       </c>
-      <c r="E35" s="143">
+      <c r="E35" s="159">
         <f>Calculations!O37</f>
         <v>0.0000000006422760445</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="141" t="str">
+      <c r="A36" s="157" t="str">
         <f>Calculations!A38</f>
         <v>TOI-4336 A</v>
       </c>
-      <c r="B36" s="141">
+      <c r="B36" s="157">
         <f>Calculations!I38</f>
         <v>13.39</v>
       </c>
-      <c r="C36" s="143">
+      <c r="C36" s="159">
         <f>Calculations!M38</f>
         <v>0</v>
       </c>
-      <c r="D36" s="143">
+      <c r="D36" s="159">
         <f>Calculations!N38</f>
         <v>0</v>
       </c>
-      <c r="E36" s="143">
+      <c r="E36" s="159">
         <f>Calculations!O38</f>
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="141" t="str">
+      <c r="A37" s="157" t="str">
         <f>Calculations!A39</f>
         <v>TOI-904</v>
       </c>
-      <c r="B37" s="141">
+      <c r="B37" s="157">
         <f>Calculations!I39</f>
         <v>12.96</v>
       </c>
-      <c r="C37" s="143">
+      <c r="C37" s="159">
         <f>Calculations!M39</f>
         <v>0</v>
       </c>
-      <c r="D37" s="143">
+      <c r="D37" s="159">
         <f>Calculations!N39</f>
         <v>0</v>
       </c>
-      <c r="E37" s="143">
+      <c r="E37" s="159">
         <f>Calculations!O39</f>
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="141" t="str">
+      <c r="A38" s="157" t="str">
         <f>Calculations!A40</f>
         <v>TOI-1696</v>
       </c>
-      <c r="B38" s="141">
+      <c r="B38" s="157">
         <f>Calculations!I40</f>
         <v>17.39</v>
       </c>
-      <c r="C38" s="143">
+      <c r="C38" s="159">
         <f>Calculations!M40</f>
         <v>0</v>
       </c>
-      <c r="D38" s="143">
+      <c r="D38" s="159">
         <f>Calculations!N40</f>
         <v>0</v>
       </c>
-      <c r="E38" s="143">
+      <c r="E38" s="159">
         <f>Calculations!O40</f>
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="141" t="str">
+      <c r="A39" s="157" t="str">
         <f>Calculations!A41</f>
         <v>GJ 3090</v>
       </c>
-      <c r="B39" s="141">
+      <c r="B39" s="157">
         <f>Calculations!I41</f>
         <v>11.8</v>
       </c>
-      <c r="C39" s="143">
+      <c r="C39" s="159">
         <f>Calculations!M41</f>
         <v>0</v>
       </c>
-      <c r="D39" s="143">
+      <c r="D39" s="159">
         <f>Calculations!N41</f>
         <v>0</v>
       </c>
-      <c r="E39" s="143">
+      <c r="E39" s="159">
         <f>Calculations!O41</f>
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="141" t="str">
+      <c r="A40" s="157" t="str">
         <f>Calculations!A42</f>
         <v>TOI-1235</v>
       </c>
-      <c r="B40" s="141">
+      <c r="B40" s="157">
         <f>Calculations!I42</f>
         <v>13.25</v>
       </c>
-      <c r="C40" s="143">
+      <c r="C40" s="159">
         <f>Calculations!M42</f>
         <v>0</v>
       </c>
-      <c r="D40" s="143">
+      <c r="D40" s="159">
         <f>Calculations!N42</f>
         <v>0</v>
       </c>
-      <c r="E40" s="143">
+      <c r="E40" s="159">
         <f>Calculations!O42</f>
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="141" t="str">
+      <c r="A41" s="157" t="str">
         <f>Calculations!A43</f>
         <v>TOI-122</v>
       </c>
-      <c r="B41" s="141">
+      <c r="B41" s="157">
         <f>Calculations!I43</f>
         <v>14.88</v>
       </c>
-      <c r="C41" s="143">
+      <c r="C41" s="159">
         <f>Calculations!M43</f>
         <v>0</v>
       </c>
-      <c r="D41" s="143">
+      <c r="D41" s="159">
         <f>Calculations!N43</f>
         <v>0</v>
       </c>
-      <c r="E41" s="143">
+      <c r="E41" s="159">
         <f>Calculations!O43</f>
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="141" t="str">
+      <c r="A42" s="157" t="str">
         <f>Calculations!A44</f>
         <v>K2-9</v>
       </c>
-      <c r="B42" s="141">
+      <c r="B42" s="157">
         <f>Calculations!I44</f>
         <v>15.48</v>
       </c>
-      <c r="C42" s="143">
+      <c r="C42" s="159">
         <f>Calculations!M44</f>
         <v>0</v>
       </c>
-      <c r="D42" s="143">
+      <c r="D42" s="159">
         <f>Calculations!N44</f>
         <v>0</v>
       </c>
-      <c r="E42" s="143">
+      <c r="E42" s="159">
         <f>Calculations!O44</f>
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="141" t="str">
+      <c r="A43" s="157" t="str">
         <f>Calculations!A45</f>
         <v>TOI-2079</v>
       </c>
-      <c r="B43" s="141">
+      <c r="B43" s="157">
         <f>Calculations!I45</f>
         <v>13.24</v>
       </c>
-      <c r="C43" s="143">
+      <c r="C43" s="159">
         <f>Calculations!M45</f>
         <v>0</v>
       </c>
-      <c r="D43" s="143">
+      <c r="D43" s="159">
         <f>Calculations!N45</f>
         <v>0</v>
       </c>
-      <c r="E43" s="143">
+      <c r="E43" s="159">
         <f>Calculations!O45</f>
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="141" t="str">
+      <c r="A44" s="157" t="str">
         <f>Calculations!A46</f>
         <v>TOI-727</v>
       </c>
-      <c r="B44" s="141">
+      <c r="B44" s="157">
         <f>Calculations!I46</f>
         <v>13.24</v>
       </c>
-      <c r="C44" s="143">
+      <c r="C44" s="159">
         <f>Calculations!M46</f>
         <v>0</v>
       </c>
-      <c r="D44" s="143">
+      <c r="D44" s="159">
         <f>Calculations!N46</f>
         <v>0</v>
       </c>
-      <c r="E44" s="143">
+      <c r="E44" s="159">
         <f>Calculations!O46</f>
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="141" t="str">
+      <c r="A45" s="157" t="str">
         <f>Calculations!A47</f>
         <v>Kepler-138</v>
       </c>
-      <c r="B45" s="141">
+      <c r="B45" s="157">
         <f>Calculations!I47</f>
         <v>13.52</v>
       </c>
-      <c r="C45" s="143">
+      <c r="C45" s="159">
         <f>Calculations!M47</f>
         <v>0</v>
       </c>
-      <c r="D45" s="143">
+      <c r="D45" s="159">
         <f>Calculations!N47</f>
         <v>0</v>
       </c>
-      <c r="E45" s="143">
+      <c r="E45" s="159">
         <f>Calculations!O47</f>
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="141" t="str">
+      <c r="A46" s="157" t="str">
         <f>Calculations!A48</f>
         <v>TOI-1752</v>
       </c>
-      <c r="B46" s="141">
+      <c r="B46" s="157">
         <f>Calculations!I48</f>
         <v>13.87</v>
       </c>
-      <c r="C46" s="143">
+      <c r="C46" s="159">
         <f>Calculations!M48</f>
         <v>0</v>
       </c>
-      <c r="D46" s="143">
+      <c r="D46" s="159">
         <f>Calculations!N48</f>
         <v>0</v>
       </c>
-      <c r="E46" s="143">
+      <c r="E46" s="159">
         <f>Calculations!O48</f>
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="141" t="str">
+      <c r="A47" s="157" t="str">
         <f>Calculations!A49</f>
         <v>TOI-4643</v>
       </c>
-      <c r="B47" s="141">
+      <c r="B47" s="157">
         <f>Calculations!I49</f>
         <v>12.66</v>
       </c>
-      <c r="C47" s="143">
+      <c r="C47" s="159">
         <f>Calculations!M49</f>
         <v>0</v>
       </c>
-      <c r="D47" s="143">
+      <c r="D47" s="159">
         <f>Calculations!N49</f>
         <v>0</v>
       </c>
-      <c r="E47" s="143">
+      <c r="E47" s="159">
         <f>Calculations!O49</f>
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="141" t="str">
+      <c r="A48" s="157" t="str">
         <f>Calculations!A50</f>
         <v>TOI-4556</v>
       </c>
-      <c r="B48" s="141">
+      <c r="B48" s="157">
         <f>Calculations!I50</f>
         <v>10.29</v>
       </c>
-      <c r="C48" s="143">
+      <c r="C48" s="159">
         <f>Calculations!M50</f>
         <v>0</v>
       </c>
-      <c r="D48" s="143">
+      <c r="D48" s="159">
         <f>Calculations!N50</f>
         <v>0</v>
       </c>
-      <c r="E48" s="143">
+      <c r="E48" s="159">
         <f>Calculations!O50</f>
         <v>0.0000000002486346911</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="141" t="str">
+      <c r="A49" s="157" t="str">
         <f>Calculations!A51</f>
         <v>TOI-4364</v>
       </c>
-      <c r="B49" s="141">
+      <c r="B49" s="157">
         <f>Calculations!I51</f>
         <v>13.95</v>
       </c>
-      <c r="C49" s="143">
+      <c r="C49" s="159">
         <f>Calculations!M51</f>
         <v>0</v>
       </c>
-      <c r="D49" s="143">
+      <c r="D49" s="159">
         <f>Calculations!N51</f>
         <v>0</v>
       </c>
-      <c r="E49" s="143">
+      <c r="E49" s="159">
         <f>Calculations!O51</f>
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="141" t="str">
+      <c r="A50" s="157" t="str">
         <f>Calculations!A52</f>
         <v>TOI-4529</v>
       </c>
-      <c r="B50" s="141">
+      <c r="B50" s="157">
         <f>Calculations!I52</f>
         <v>12.51</v>
       </c>
-      <c r="C50" s="143">
+      <c r="C50" s="159">
         <f>Calculations!M52</f>
         <v>0</v>
       </c>
-      <c r="D50" s="143">
+      <c r="D50" s="159">
         <f>Calculations!N52</f>
         <v>0</v>
       </c>
-      <c r="E50" s="143">
+      <c r="E50" s="159">
         <f>Calculations!O52</f>
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="141" t="str">
+      <c r="A51" s="157" t="str">
         <f>Calculations!A53</f>
         <v>TOI-715</v>
       </c>
-      <c r="B51" s="141">
+      <c r="B51" s="157">
         <f>Calculations!I53</f>
         <v>17.07</v>
       </c>
-      <c r="C51" s="143">
+      <c r="C51" s="159">
         <f>Calculations!M53</f>
         <v>0</v>
       </c>
-      <c r="D51" s="143">
+      <c r="D51" s="159">
         <f>Calculations!N53</f>
         <v>0</v>
       </c>
-      <c r="E51" s="143">
+      <c r="E51" s="159">
         <f>Calculations!O53</f>
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="141" t="str">
+      <c r="A52" s="157" t="str">
         <f>Calculations!A54</f>
         <v>K2-3</v>
       </c>
-      <c r="B52" s="144">
+      <c r="B52" s="160">
         <f>Calculations!I54</f>
         <v>13.4198</v>
       </c>
-      <c r="C52" s="143">
+      <c r="C52" s="159">
         <f>Calculations!M54</f>
         <v>0</v>
       </c>
-      <c r="D52" s="143">
+      <c r="D52" s="159">
         <f>Calculations!N54</f>
         <v>0</v>
       </c>
-      <c r="E52" s="143">
+      <c r="E52" s="159">
         <f>Calculations!O54</f>
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="141" t="str">
+      <c r="A53" s="157" t="str">
         <f>Calculations!A55</f>
         <v>TOI-270</v>
       </c>
-      <c r="B53" s="144">
+      <c r="B53" s="160">
         <f>Calculations!I55</f>
         <v>13.075</v>
       </c>
-      <c r="C53" s="143">
+      <c r="C53" s="159">
         <f>Calculations!M55</f>
         <v>0</v>
       </c>
-      <c r="D53" s="143">
+      <c r="D53" s="159">
         <f>Calculations!N55</f>
         <v>0</v>
       </c>
-      <c r="E53" s="143">
+      <c r="E53" s="159">
         <f>Calculations!O55</f>
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="141" t="str">
+      <c r="A54" s="157" t="str">
         <f>Calculations!A56</f>
         <v>TOI-870</v>
       </c>
-      <c r="B54" s="144">
+      <c r="B54" s="160">
         <f>Calculations!I56</f>
         <v>12.86</v>
       </c>
-      <c r="C54" s="143">
+      <c r="C54" s="159">
         <f>Calculations!M56</f>
         <v>0</v>
       </c>
-      <c r="D54" s="143">
+      <c r="D54" s="159">
         <f>Calculations!N56</f>
         <v>0</v>
       </c>
-      <c r="E54" s="143">
+      <c r="E54" s="159">
         <f>Calculations!O56</f>
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="141" t="str">
+      <c r="A55" s="157" t="str">
         <f>Calculations!A57</f>
         <v>TOI-133</v>
       </c>
-      <c r="B55" s="144">
+      <c r="B55" s="160">
         <f>Calculations!I57</f>
         <v>11.56</v>
       </c>
-      <c r="C55" s="143">
+      <c r="C55" s="159">
         <f>Calculations!M57</f>
         <v>0</v>
       </c>
-      <c r="D55" s="143">
+      <c r="D55" s="159">
         <f>Calculations!N57</f>
         <v>0</v>
       </c>
-      <c r="E55" s="143">
+      <c r="E55" s="159">
         <f>Calculations!O57</f>
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="141" t="str">
+      <c r="A56" s="157" t="str">
         <f>Calculations!A61</f>
         <v>EXAMPLES BELOW</v>
       </c>
-      <c r="B56" s="141" t="str">
+      <c r="B56" s="157" t="str">
         <f>Calculations!I61</f>
         <v/>
       </c>
-      <c r="C56" s="143" t="str">
+      <c r="C56" s="159" t="str">
         <f>Calculations!M61</f>
         <v/>
       </c>
-      <c r="D56" s="143" t="str">
+      <c r="D56" s="159" t="str">
         <f>Calculations!N61</f>
         <v/>
       </c>
-      <c r="E56" s="143" t="str">
+      <c r="E56" s="159" t="str">
         <f>Calculations!O61</f>
         <v/>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="141" t="str">
+      <c r="A57" s="157" t="str">
         <f>Calculations!A62</f>
         <v>Trappist-1</v>
       </c>
-      <c r="B57" s="141">
+      <c r="B57" s="157">
         <f>Calculations!I62</f>
         <v>19.63</v>
       </c>
-      <c r="C57" s="143">
+      <c r="C57" s="159">
         <f>Calculations!M62</f>
         <v>0</v>
       </c>
-      <c r="D57" s="143">
+      <c r="D57" s="159">
         <f>Calculations!N62</f>
         <v>0</v>
       </c>
-      <c r="E57" s="143">
+      <c r="E57" s="159">
         <f>Calculations!O62</f>
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="141" t="str">
+      <c r="A58" s="157" t="str">
         <f>Calculations!A63</f>
         <v>HIP17695</v>
       </c>
-      <c r="B58" s="141">
+      <c r="B58" s="157">
         <f>Calculations!I63</f>
         <v>6.052</v>
       </c>
-      <c r="C58" s="143">
+      <c r="C58" s="159">
         <f>Calculations!M63</f>
         <v>0.000000000244</v>
       </c>
-      <c r="D58" s="143">
+      <c r="D58" s="159">
         <f>Calculations!N63</f>
         <v>0.000000000334</v>
       </c>
-      <c r="E58" s="143">
+      <c r="E58" s="159">
         <f>Calculations!O63</f>
         <v>0.00000000902</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="141" t="str">
+      <c r="A59" s="157" t="str">
         <f>Calculations!A64</f>
         <v/>
       </c>
-      <c r="B59" s="145" t="str">
+      <c r="B59" s="161" t="str">
         <f>Calculations!I64</f>
         <v/>
       </c>
-      <c r="C59" s="143" t="str">
+      <c r="C59" s="159" t="str">
         <f>Calculations!M64</f>
         <v/>
       </c>
-      <c r="D59" s="143" t="str">
+      <c r="D59" s="159" t="str">
         <f>Calculations!N64</f>
         <v/>
       </c>
-      <c r="E59" s="143" t="str">
+      <c r="E59" s="159" t="str">
         <f>Calculations!O64</f>
         <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="141" t="str">
+      <c r="A60" s="157" t="str">
         <f>Calculations!A65</f>
         <v>KEY:</v>
       </c>
-      <c r="B60" s="145" t="str">
+      <c r="B60" s="161" t="str">
         <f>Calculations!I65</f>
         <v/>
       </c>
-      <c r="C60" s="144" t="str">
+      <c r="C60" s="160" t="str">
         <f>Calculations!M65</f>
         <v/>
       </c>
-      <c r="D60" s="144" t="str">
+      <c r="D60" s="160" t="str">
         <f>Calculations!N65</f>
         <v/>
       </c>
-      <c r="E60" s="144" t="str">
+      <c r="E60" s="160" t="str">
         <f>Calculations!O65</f>
         <v/>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="141" t="str">
+      <c r="A61" s="157" t="str">
         <f>Calculations!A66</f>
         <v>Ancillary info.</v>
       </c>
-      <c r="B61" s="145" t="str">
+      <c r="B61" s="161" t="str">
         <f>Calculations!I66</f>
         <v/>
       </c>
-      <c r="C61" s="144" t="str">
+      <c r="C61" s="160" t="str">
         <f>Calculations!M66</f>
         <v/>
       </c>
-      <c r="D61" s="144" t="str">
+      <c r="D61" s="160" t="str">
         <f>Calculations!N66</f>
         <v/>
       </c>
-      <c r="E61" s="144" t="str">
+      <c r="E61" s="160" t="str">
         <f>Calculations!O66</f>
         <v/>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="141" t="str">
+      <c r="A62" s="157" t="str">
         <f>Calculations!A67</f>
         <v>Free form input</v>
       </c>
-      <c r="B62" s="145" t="str">
+      <c r="B62" s="161" t="str">
         <f>Calculations!I67</f>
         <v/>
       </c>
-      <c r="C62" s="144" t="str">
+      <c r="C62" s="160" t="str">
         <f>Calculations!M67</f>
         <v/>
       </c>
-      <c r="D62" s="144" t="str">
+      <c r="D62" s="160" t="str">
         <f>Calculations!N67</f>
         <v/>
       </c>
-      <c r="E62" s="144" t="str">
+      <c r="E62" s="160" t="str">
         <f>Calculations!O67</f>
         <v/>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="141" t="str">
+      <c r="A63" s="157" t="str">
         <f>Calculations!A68</f>
         <v>Drop down input</v>
       </c>
-      <c r="B63" s="145" t="str">
+      <c r="B63" s="161" t="str">
         <f>Calculations!I68</f>
         <v/>
       </c>
-      <c r="C63" s="144" t="str">
+      <c r="C63" s="160" t="str">
         <f>Calculations!M68</f>
         <v/>
       </c>
-      <c r="D63" s="144" t="str">
+      <c r="D63" s="160" t="str">
         <f>Calculations!N68</f>
         <v/>
       </c>
-      <c r="E63" s="144" t="str">
+      <c r="E63" s="160" t="str">
         <f>Calculations!O68</f>
         <v/>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="141" t="str">
+      <c r="A64" s="157" t="str">
         <f>Calculations!A69</f>
         <v>Calculated output</v>
       </c>
-      <c r="B64" s="145" t="str">
+      <c r="B64" s="161" t="str">
         <f>Calculations!I69</f>
         <v/>
       </c>
-      <c r="C64" s="144" t="str">
+      <c r="C64" s="160" t="str">
         <f>Calculations!M69</f>
         <v/>
       </c>
-      <c r="D64" s="144" t="str">
+      <c r="D64" s="160" t="str">
         <f>Calculations!N69</f>
         <v/>
       </c>
-      <c r="E64" s="144" t="str">
+      <c r="E64" s="160" t="str">
         <f>Calculations!O69</f>
         <v/>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="141" t="str">
+      <c r="A65" s="157" t="str">
         <f>Calculations!A70</f>
         <v>Ancillary output</v>
       </c>
-      <c r="B65" s="141" t="str">
+      <c r="B65" s="157" t="str">
         <f>Calculations!I70</f>
         <v/>
       </c>
-      <c r="C65" s="141" t="str">
+      <c r="C65" s="157" t="str">
         <f>Calculations!M70</f>
         <v/>
       </c>
-      <c r="D65" s="141" t="str">
+      <c r="D65" s="157" t="str">
         <f>Calculations!N70</f>
         <v/>
       </c>
-      <c r="E65" s="141" t="str">
+      <c r="E65" s="157" t="str">
         <f>Calculations!O70</f>
         <v/>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="141" t="str">
+      <c r="A66" s="157" t="str">
         <f>Calculations!A71</f>
         <v/>
       </c>
-      <c r="B66" s="141" t="str">
+      <c r="B66" s="157" t="str">
         <f>Calculations!I71</f>
         <v/>
       </c>
-      <c r="C66" s="141" t="str">
+      <c r="C66" s="157" t="str">
         <f>Calculations!M71</f>
         <v/>
       </c>
-      <c r="D66" s="141" t="str">
+      <c r="D66" s="157" t="str">
         <f>Calculations!N71</f>
         <v/>
       </c>
-      <c r="E66" s="141" t="str">
+      <c r="E66" s="157" t="str">
         <f>Calculations!O71</f>
         <v/>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="141" t="str">
+      <c r="A67" s="157" t="str">
         <f>Calculations!A72</f>
         <v/>
       </c>
-      <c r="B67" s="141" t="str">
+      <c r="B67" s="157" t="str">
         <f>Calculations!I72</f>
         <v/>
       </c>
-      <c r="C67" s="141" t="str">
+      <c r="C67" s="157" t="str">
         <f>Calculations!M72</f>
         <v/>
       </c>
-      <c r="D67" s="141" t="str">
+      <c r="D67" s="157" t="str">
         <f>Calculations!N72</f>
         <v/>
       </c>
-      <c r="E67" s="141" t="str">
+      <c r="E67" s="157" t="str">
         <f>Calculations!O72</f>
         <v/>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="141" t="str">
+      <c r="A68" s="157" t="str">
         <f>Calculations!A73</f>
         <v/>
       </c>
-      <c r="B68" s="141" t="str">
+      <c r="B68" s="157" t="str">
         <f>Calculations!I73</f>
         <v/>
       </c>
-      <c r="C68" s="141" t="str">
+      <c r="C68" s="157" t="str">
         <f>Calculations!M73</f>
         <v/>
       </c>
-      <c r="D68" s="141" t="str">
+      <c r="D68" s="157" t="str">
         <f>Calculations!N73</f>
         <v/>
       </c>
-      <c r="E68" s="141" t="str">
+      <c r="E68" s="157" t="str">
         <f>Calculations!O73</f>
         <v/>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="141" t="str">
+      <c r="A69" s="157" t="str">
         <f>Calculations!A74</f>
         <v/>
       </c>
-      <c r="B69" s="145" t="str">
+      <c r="B69" s="161" t="str">
         <f>Calculations!I74</f>
         <v/>
       </c>
-      <c r="C69" s="144" t="str">
+      <c r="C69" s="160" t="str">
         <f>Calculations!M74</f>
         <v/>
       </c>
-      <c r="D69" s="144" t="str">
+      <c r="D69" s="160" t="str">
         <f>Calculations!N74</f>
         <v/>
       </c>
-      <c r="E69" s="144" t="str">
+      <c r="E69" s="160" t="str">
         <f>Calculations!O74</f>
         <v/>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="141" t="str">
+      <c r="A70" s="157" t="str">
         <f>Calculations!A75</f>
         <v/>
       </c>
-      <c r="B70" s="141" t="str">
+      <c r="B70" s="157" t="str">
         <f>Calculations!I75</f>
         <v/>
       </c>
-      <c r="C70" s="141" t="str">
+      <c r="C70" s="157" t="str">
         <f>Calculations!M75</f>
         <v/>
       </c>
-      <c r="D70" s="141" t="str">
+      <c r="D70" s="157" t="str">
         <f>Calculations!N75</f>
         <v/>
       </c>
-      <c r="E70" s="141" t="str">
+      <c r="E70" s="157" t="str">
         <f>Calculations!O75</f>
         <v/>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="141" t="str">
+      <c r="A71" s="157" t="str">
         <f>Calculations!A76</f>
         <v/>
       </c>
-      <c r="B71" s="141" t="str">
+      <c r="B71" s="157" t="str">
         <f>Calculations!I76</f>
         <v/>
       </c>
-      <c r="C71" s="141" t="str">
+      <c r="C71" s="157" t="str">
         <f>Calculations!M76</f>
         <v/>
       </c>
-      <c r="D71" s="141" t="str">
+      <c r="D71" s="157" t="str">
         <f>Calculations!N76</f>
         <v/>
       </c>
-      <c r="E71" s="141" t="str">
+      <c r="E71" s="157" t="str">
         <f>Calculations!O76</f>
         <v/>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="141" t="str">
+      <c r="A72" s="157" t="str">
         <f>Calculations!A77</f>
         <v/>
       </c>
-      <c r="B72" s="141" t="str">
+      <c r="B72" s="157" t="str">
         <f>Calculations!I77</f>
         <v/>
       </c>
-      <c r="C72" s="141" t="str">
+      <c r="C72" s="157" t="str">
         <f>Calculations!M77</f>
         <v/>
       </c>
-      <c r="D72" s="141" t="str">
+      <c r="D72" s="157" t="str">
         <f>Calculations!N77</f>
         <v/>
       </c>
-      <c r="E72" s="141" t="str">
+      <c r="E72" s="157" t="str">
         <f>Calculations!O77</f>
         <v/>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="141" t="str">
+      <c r="A73" s="157" t="str">
         <f>Calculations!A78</f>
         <v/>
       </c>
-      <c r="B73" s="141" t="str">
+      <c r="B73" s="157" t="str">
         <f>Calculations!I78</f>
         <v/>
       </c>
-      <c r="C73" s="141" t="str">
+      <c r="C73" s="157" t="str">
         <f>Calculations!M78</f>
         <v/>
       </c>
-      <c r="D73" s="141" t="str">
+      <c r="D73" s="157" t="str">
         <f>Calculations!N78</f>
         <v/>
       </c>
-      <c r="E73" s="141" t="str">
+      <c r="E73" s="157" t="str">
         <f>Calculations!O78</f>
         <v/>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="141" t="str">
+      <c r="A74" s="157" t="str">
         <f>Calculations!A79</f>
         <v/>
       </c>
-      <c r="B74" s="141" t="str">
+      <c r="B74" s="157" t="str">
         <f>Calculations!I79</f>
         <v/>
       </c>
-      <c r="C74" s="141" t="str">
+      <c r="C74" s="157" t="str">
         <f>Calculations!M79</f>
         <v/>
       </c>
-      <c r="D74" s="141" t="str">
+      <c r="D74" s="157" t="str">
         <f>Calculations!N79</f>
         <v/>
       </c>
-      <c r="E74" s="141" t="str">
+      <c r="E74" s="157" t="str">
         <f>Calculations!O79</f>
         <v/>
       </c>
@@ -12626,111 +12712,111 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="136" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="H1" s="162" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="136">
         <v>-2.8</v>
       </c>
-      <c r="F2" s="122">
+      <c r="F2" s="136">
         <v>-2.3</v>
       </c>
-      <c r="H2" s="147"/>
+      <c r="H2" s="163"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="136">
         <v>-8.0</v>
       </c>
-      <c r="F3" s="122">
+      <c r="F3" s="136">
         <v>-2.3</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="164" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="136">
         <v>-2.8</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="136">
         <v>0.0</v>
       </c>
-      <c r="H4" s="149">
+      <c r="H4" s="165">
         <v>2.99792E10</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="164" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="H6" s="149">
+      <c r="H6" s="165">
         <v>6.62607E-27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="164" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="H8" s="149">
+      <c r="H8" s="165">
         <v>1.38065E-16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="H9" s="148" t="s">
+      <c r="H9" s="164" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="H10" s="149">
+      <c r="H10" s="165">
         <v>6.957E10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="H11" s="148" t="s">
+      <c r="H11" s="164" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="H12" s="149">
+      <c r="H12" s="165">
         <v>3.086E18</v>
       </c>
     </row>
